--- a/tests/Plan test - seguimiento .xlsx
+++ b/tests/Plan test - seguimiento .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7306CA63-CA83-4F70-8F08-F8130866DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B63C6-45AB-4F0C-B271-84B17EC3AA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20616" windowHeight="11016" tabRatio="601" activeTab="1" xr2:uid="{297FDD56-996B-4A91-B117-D5E5BF79AC61}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="601" activeTab="1" xr2:uid="{297FDD56-996B-4A91-B117-D5E5BF79AC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$L$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$L$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="651">
   <si>
     <t>ID</t>
   </si>
@@ -1831,9 +1831,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Stakeholders → RACI </t>
-  </si>
-  <si>
-    <t>TS-INT-EXT-LLM-*</t>
   </si>
   <si>
     <t xml:space="preserve"> LLM Integration </t>
@@ -2366,8 +2363,8 @@
       <sheetName val="promt"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -11064,10 +11061,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22243,19 +22240,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EE910-8E6F-404B-BA4D-060668BC2CAF}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="33"/>
     <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -22268,7 +22265,7 @@
         <v>506</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>5</v>
@@ -22308,7 +22305,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F2" s="52">
         <v>1</v>
@@ -22333,7 +22330,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F3" s="52">
         <v>1</v>
@@ -22533,7 +22530,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F11" s="52">
         <v>2</v>
@@ -22558,7 +22555,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F12" s="52">
         <v>2</v>
@@ -22583,7 +22580,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F13" s="52">
         <v>2</v>
@@ -22608,7 +22605,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F14" s="52">
         <v>2</v>
@@ -22629,7 +22626,7 @@
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F15" s="48">
         <v>2</v>
@@ -22645,7 +22642,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F16" s="44">
         <v>12</v>
@@ -22665,7 +22662,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F17" s="30">
         <v>3</v>
@@ -22688,7 +22685,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F18" s="31">
         <v>4</v>
@@ -22716,7 +22713,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F19" s="31">
         <v>4</v>
@@ -22744,7 +22741,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F20" s="31">
         <v>4</v>
@@ -22772,7 +22769,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F21" s="31">
         <v>4</v>
@@ -22800,7 +22797,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F22" s="31">
         <v>4</v>
@@ -22828,7 +22825,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F23" s="30">
         <v>4</v>
@@ -22851,7 +22848,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F24" s="30">
         <v>4</v>
@@ -22874,7 +22871,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F25" s="31">
         <v>4</v>
@@ -22902,7 +22899,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F26" s="31">
         <v>4</v>
@@ -22930,7 +22927,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F27" s="30">
         <v>4</v>
@@ -22954,7 +22951,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F28" s="31">
         <v>4</v>
@@ -22982,7 +22979,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F29" s="30">
         <v>11</v>
@@ -23006,7 +23003,7 @@
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F30" s="44">
         <v>12</v>
@@ -23026,7 +23023,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F31" s="31">
         <v>5</v>
@@ -23054,7 +23051,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F32" s="31">
         <v>5</v>
@@ -23082,7 +23079,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F33" s="31">
         <v>5</v>
@@ -23110,7 +23107,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F34" s="31">
         <v>5</v>
@@ -23138,7 +23135,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F35" s="31">
         <v>5</v>
@@ -23166,7 +23163,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F36" s="31">
         <v>5</v>
@@ -23194,7 +23191,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F37" s="31">
         <v>5</v>
@@ -23222,7 +23219,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F38" s="31">
         <v>5</v>
@@ -23250,7 +23247,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F39" s="31">
         <v>5</v>
@@ -23278,7 +23275,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F40" s="31">
         <v>5</v>
@@ -23306,7 +23303,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F41" s="31">
         <v>5</v>
@@ -23334,7 +23331,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F42" s="31">
         <v>5</v>
@@ -23362,7 +23359,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F43" s="30">
         <v>5</v>
@@ -23385,7 +23382,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F44" s="30">
         <v>5</v>
@@ -23408,7 +23405,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F45" s="31">
         <v>5</v>
@@ -23434,7 +23431,7 @@
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F46" s="30">
         <v>5</v>
@@ -23455,7 +23452,7 @@
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F47" s="44">
         <v>12</v>
@@ -23475,7 +23472,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F48" s="51">
         <v>6</v>
@@ -23498,7 +23495,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F49" s="51">
         <v>6</v>
@@ -23521,7 +23518,7 @@
         <v>13</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F50" s="51">
         <v>6</v>
@@ -23544,7 +23541,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F51" s="51">
         <v>6</v>
@@ -23567,7 +23564,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F52" s="51">
         <v>6</v>
@@ -23590,7 +23587,7 @@
         <v>13</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F53" s="51">
         <v>6</v>
@@ -23613,7 +23610,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F54" s="51">
         <v>6</v>
@@ -23636,7 +23633,7 @@
         <v>13</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F55" s="52">
         <v>6</v>
@@ -23662,7 +23659,7 @@
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F56" s="48">
         <v>11</v>
@@ -23680,7 +23677,7 @@
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F57" s="44">
         <v>6</v>
@@ -23700,7 +23697,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F58" s="30">
         <v>7</v>
@@ -23723,7 +23720,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F59" s="30">
         <v>7</v>
@@ -23746,7 +23743,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F60" s="30">
         <v>7</v>
@@ -23769,7 +23766,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F61" s="30">
         <v>7</v>
@@ -23792,7 +23789,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F62" s="30">
         <v>7</v>
@@ -23815,7 +23812,7 @@
         <v>13</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F63" s="30">
         <v>7</v>
@@ -23838,7 +23835,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F64" s="30">
         <v>7</v>
@@ -23861,7 +23858,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F65" s="31">
         <v>7</v>
@@ -23884,7 +23881,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F66" s="31">
         <v>7</v>
@@ -23910,7 +23907,7 @@
       </c>
       <c r="D67" s="47"/>
       <c r="E67" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F67" s="48">
         <v>7</v>
@@ -23928,7 +23925,7 @@
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F68" s="44">
         <v>12</v>
@@ -23948,7 +23945,7 @@
         <v>13</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F69" s="30">
         <v>8</v>
@@ -23971,7 +23968,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F70" s="30">
         <v>8</v>
@@ -23994,7 +23991,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F71" s="30">
         <v>8</v>
@@ -24017,7 +24014,7 @@
         <v>13</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F72" s="30">
         <v>8</v>
@@ -24040,7 +24037,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F73" s="30">
         <v>8</v>
@@ -24063,7 +24060,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F74" s="30">
         <v>8</v>
@@ -24086,7 +24083,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F75" s="30">
         <v>8</v>
@@ -24109,7 +24106,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F76" s="31">
         <v>8</v>
@@ -24137,7 +24134,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F77" s="30">
         <v>8</v>
@@ -24158,7 +24155,7 @@
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F78" s="44">
         <v>8</v>
@@ -24176,7 +24173,7 @@
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F79" s="31">
         <v>9</v>
@@ -24199,7 +24196,7 @@
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F80" s="31">
         <v>9</v>
@@ -24210,7 +24207,7 @@
       <c r="J80" s="26"/>
       <c r="K80" s="26"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" s="38">
         <v>77</v>
       </c>
@@ -24222,7 +24219,7 @@
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F81" s="31">
         <v>9</v>
@@ -24233,7 +24230,7 @@
       <c r="J81" s="26"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" s="38">
         <v>78</v>
       </c>
@@ -24245,7 +24242,7 @@
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F82" s="31">
         <v>9</v>
@@ -24256,7 +24253,7 @@
       <c r="J82" s="26"/>
       <c r="K82" s="26"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" s="38">
         <v>79</v>
       </c>
@@ -24268,7 +24265,7 @@
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F83" s="31">
         <v>9</v>
@@ -24279,7 +24276,7 @@
       <c r="J83" s="26"/>
       <c r="K83" s="26"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="A84" s="38">
         <v>80</v>
       </c>
@@ -24291,7 +24288,7 @@
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F84" s="31">
         <v>9</v>
@@ -24302,7 +24299,7 @@
       <c r="J84" s="26"/>
       <c r="K84" s="26"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1">
+    <row r="85" spans="1:12" ht="15" customHeight="1">
       <c r="A85" s="38">
         <v>80</v>
       </c>
@@ -24314,13 +24311,13 @@
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F85" s="30">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" s="38">
         <v>81</v>
       </c>
@@ -24332,13 +24329,13 @@
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F86" s="30">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="38">
         <v>82</v>
       </c>
@@ -24350,13 +24347,13 @@
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="40" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F87" s="44">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="38">
         <v>83</v>
       </c>
@@ -24366,13 +24363,13 @@
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F88" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" s="38">
         <v>84</v>
       </c>
@@ -24382,13 +24379,13 @@
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F89" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="38">
         <v>85</v>
       </c>
@@ -24398,13 +24395,13 @@
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F90" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="38">
         <v>86</v>
       </c>
@@ -24414,13 +24411,13 @@
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F91" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="38">
         <v>87</v>
       </c>
@@ -24430,15 +24427,20 @@
       <c r="C92" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="D92" s="18"/>
+      <c r="D92" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E92" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F92" s="30">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="38">
         <v>88</v>
       </c>
@@ -24448,15 +24450,20 @@
       <c r="C93" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="D93" s="18"/>
+      <c r="D93" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E93" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F93" s="30">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1">
+      <c r="L93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15" thickBot="1">
       <c r="A94" s="38">
         <v>89</v>
       </c>
@@ -24466,15 +24473,20 @@
       <c r="C94" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="D94" s="18"/>
+      <c r="D94" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E94" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F94" s="30">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="16.8" customHeight="1" thickBot="1">
+      <c r="L94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="16.8" customHeight="1" thickBot="1">
       <c r="A95" s="38">
         <v>72</v>
       </c>
@@ -24482,11 +24494,16 @@
         <v>434</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+      <c r="D95" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E95" s="18"/>
       <c r="F95" s="30"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="38">
         <v>90</v>
       </c>
@@ -24496,12 +24513,17 @@
       <c r="C96" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="D96" s="18"/>
+      <c r="D96" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E96" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F96" s="30">
         <v>11</v>
+      </c>
+      <c r="L96" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -24509,35 +24531,41 @@
         <v>91</v>
       </c>
       <c r="B97" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="D97" s="18"/>
+      <c r="D97" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E97" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F97" s="30">
         <v>11</v>
       </c>
+      <c r="L97" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1">
-      <c r="A98" s="38">
-        <v>92</v>
-      </c>
+      <c r="A98" s="38"/>
       <c r="B98" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="D98" s="18"/>
+        <v>468</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E98" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F98" s="30">
         <v>11</v>
+      </c>
+      <c r="L98" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="16.2" thickBot="1">
@@ -24548,14 +24576,19 @@
         <v>460</v>
       </c>
       <c r="C99" t="s">
-        <v>630</v>
-      </c>
-      <c r="D99" s="18"/>
+        <v>629</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E99" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F99" s="30">
         <v>11</v>
+      </c>
+      <c r="L99" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16.2" thickBot="1">
@@ -24566,11 +24599,13 @@
         <v>463</v>
       </c>
       <c r="C100" t="s">
-        <v>631</v>
-      </c>
-      <c r="D100" s="18"/>
+        <v>630</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E100" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F100" s="30">
         <v>11</v>
@@ -24587,11 +24622,13 @@
         <v>464</v>
       </c>
       <c r="C101" t="s">
-        <v>632</v>
-      </c>
-      <c r="D101" s="18"/>
+        <v>631</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E101" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F101" s="30">
         <v>11</v>
@@ -24608,94 +24645,93 @@
         <v>466</v>
       </c>
       <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
+      <c r="D102" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E102" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F102" s="30">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+      <c r="L102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" thickBot="1">
       <c r="A103" s="38">
+        <v>92</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="F103" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A104" s="38">
         <v>93</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B104" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="C103" t="s">
-        <v>626</v>
-      </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="F103" s="34">
+      <c r="C104" t="s">
+        <v>625</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="F104" s="34">
         <v>11</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-    </row>
-    <row r="104" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A104" s="39">
-        <v>583</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="F104" s="45" t="s">
-        <v>651</v>
-      </c>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L104">
-        <f>VLOOKUP(B104,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="28" t="s">
-        <v>13</v>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="19.2" customHeight="1">
       <c r="A105" s="39">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="D105" s="28"/>
+        <v>615</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E105" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F105" s="45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G105" s="26"/>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
       <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105">
-        <f>VLOOKUP(B105,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="K105" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" t="s">
+        <v>15</v>
       </c>
       <c r="M105" s="28" t="s">
         <v>13</v>
@@ -24703,27 +24739,30 @@
     </row>
     <row r="106" spans="1:13" ht="19.2" customHeight="1">
       <c r="A106" s="39">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="D106" s="28"/>
+        <v>616</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E106" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="F106" s="45"/>
+        <v>647</v>
+      </c>
+      <c r="F106" s="45" t="s">
+        <v>650</v>
+      </c>
       <c r="G106" s="26"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
       <c r="J106" s="26"/>
       <c r="K106" s="26"/>
-      <c r="L106" s="15">
-        <f>VLOOKUP(B106,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L106" t="s">
+        <v>15</v>
       </c>
       <c r="M106" s="28" t="s">
         <v>13</v>
@@ -24731,17 +24770,19 @@
     </row>
     <row r="107" spans="1:13" ht="19.2" customHeight="1">
       <c r="A107" s="39">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="D107" s="28"/>
+        <v>617</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E107" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F107" s="45"/>
       <c r="G107" s="26"/>
@@ -24749,9 +24790,8 @@
       <c r="I107" s="26"/>
       <c r="J107" s="26"/>
       <c r="K107" s="26"/>
-      <c r="L107" s="15">
-        <f>VLOOKUP(B107,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L107" t="s">
+        <v>15</v>
       </c>
       <c r="M107" s="28" t="s">
         <v>13</v>
@@ -24759,17 +24799,19 @@
     </row>
     <row r="108" spans="1:13" ht="19.2" customHeight="1">
       <c r="A108" s="39">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D108" s="28"/>
+        <v>618</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E108" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F108" s="45"/>
       <c r="G108" s="26"/>
@@ -24777,9 +24819,8 @@
       <c r="I108" s="26"/>
       <c r="J108" s="26"/>
       <c r="K108" s="26"/>
-      <c r="L108" s="15">
-        <f>VLOOKUP(B108,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L108" t="s">
+        <v>15</v>
       </c>
       <c r="M108" s="28" t="s">
         <v>13</v>
@@ -24787,17 +24828,19 @@
     </row>
     <row r="109" spans="1:13" ht="19.2" customHeight="1">
       <c r="A109" s="39">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="D109" s="28"/>
+        <v>619</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E109" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F109" s="45"/>
       <c r="G109" s="26"/>
@@ -24805,9 +24848,8 @@
       <c r="I109" s="26"/>
       <c r="J109" s="26"/>
       <c r="K109" s="26"/>
-      <c r="L109" s="15">
-        <f>VLOOKUP(B109,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L109" t="s">
+        <v>15</v>
       </c>
       <c r="M109" s="28" t="s">
         <v>13</v>
@@ -24815,17 +24857,19 @@
     </row>
     <row r="110" spans="1:13" ht="19.2" customHeight="1">
       <c r="A110" s="39">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="D110" s="28"/>
+        <v>620</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E110" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F110" s="45"/>
       <c r="G110" s="26"/>
@@ -24833,9 +24877,8 @@
       <c r="I110" s="26"/>
       <c r="J110" s="26"/>
       <c r="K110" s="26"/>
-      <c r="L110" s="15">
-        <f>VLOOKUP(B110,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L110" t="s">
+        <v>15</v>
       </c>
       <c r="M110" s="28" t="s">
         <v>13</v>
@@ -24843,17 +24886,19 @@
     </row>
     <row r="111" spans="1:13" ht="19.2" customHeight="1">
       <c r="A111" s="39">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="D111" s="28"/>
+        <v>621</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E111" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F111" s="45"/>
       <c r="G111" s="26"/>
@@ -24861,9 +24906,8 @@
       <c r="I111" s="26"/>
       <c r="J111" s="26"/>
       <c r="K111" s="26"/>
-      <c r="L111" s="15">
-        <f>VLOOKUP(B111,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L111" t="s">
+        <v>15</v>
       </c>
       <c r="M111" s="28" t="s">
         <v>13</v>
@@ -24871,49 +24915,54 @@
     </row>
     <row r="112" spans="1:13" ht="19.2" customHeight="1">
       <c r="A112" s="39">
-        <v>592</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="D112" s="15"/>
+        <v>591</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E112" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="F112" s="46">
-        <v>11</v>
-      </c>
-      <c r="L112">
-        <f>VLOOKUP(B112,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M112" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="F112" s="45"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" t="s">
+        <v>15</v>
+      </c>
+      <c r="M112" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="19.2" customHeight="1">
       <c r="A113" s="39">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="D113" s="15"/>
+        <v>623</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E113" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F113" s="46">
         <v>11</v>
       </c>
-      <c r="L113">
-        <f>VLOOKUP(B113,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L113" t="s">
+        <v>15</v>
       </c>
       <c r="M113" s="15" t="s">
         <v>13</v>
@@ -24921,24 +24970,25 @@
     </row>
     <row r="114" spans="1:13" ht="19.2" customHeight="1">
       <c r="A114" s="39">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="D114" s="15"/>
+        <v>624</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E114" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F114" s="46">
         <v>11</v>
       </c>
-      <c r="L114">
-        <f>VLOOKUP(B114,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L114" t="s">
+        <v>15</v>
       </c>
       <c r="M114" s="15" t="s">
         <v>13</v>
@@ -24946,27 +24996,25 @@
     </row>
     <row r="115" spans="1:13" ht="19.2" customHeight="1">
       <c r="A115" s="39">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="D115" s="15"/>
+        <v>633</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E115" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F115" s="46">
         <v>11</v>
       </c>
-      <c r="K115" t="s">
-        <v>482</v>
-      </c>
-      <c r="L115" t="str">
-        <f>VLOOKUP(B115,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>codex</v>
+      <c r="L115" t="s">
+        <v>15</v>
       </c>
       <c r="M115" s="15" t="s">
         <v>13</v>
@@ -24974,45 +25022,48 @@
     </row>
     <row r="116" spans="1:13" ht="19.2" customHeight="1">
       <c r="A116" s="39">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="D116" s="15"/>
+        <v>634</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E116" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F116" s="46">
         <v>11</v>
       </c>
       <c r="K116" t="s">
-        <v>15</v>
-      </c>
-      <c r="L116" t="str">
-        <f>VLOOKUP(B116,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>codex</v>
+        <v>482</v>
+      </c>
+      <c r="L116" t="s">
+        <v>15</v>
       </c>
       <c r="M116" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="117" spans="1:13" ht="19.2" customHeight="1">
       <c r="A117" s="39">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="D117" s="15"/>
+        <v>635</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E117" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F117" s="46">
         <v>11</v>
@@ -25020,51 +25071,56 @@
       <c r="K117" t="s">
         <v>15</v>
       </c>
-      <c r="L117" t="str">
-        <f>VLOOKUP(B117,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>codex</v>
+      <c r="L117" t="s">
+        <v>15</v>
       </c>
       <c r="M117" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A118" s="38">
-        <v>94</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="F118" s="34">
+      <c r="A118" s="39">
+        <v>616</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="F118" s="46">
         <v>11</v>
       </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
+      <c r="K118" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" t="s">
+        <v>15</v>
+      </c>
+      <c r="M118" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="119" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A119" s="38">
-        <v>95</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>600</v>
-      </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="F119" s="35">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="F119" s="34">
+        <v>11</v>
       </c>
       <c r="G119" s="23"/>
       <c r="H119" s="23"/>
@@ -25074,17 +25130,19 @@
     </row>
     <row r="120" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A120" s="38">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>601</v>
+        <v>451</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="D120" s="25"/>
+        <v>599</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E120" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F120" s="35">
         <v>12</v>
@@ -25094,20 +25152,25 @@
       <c r="I120" s="23"/>
       <c r="J120" s="23"/>
       <c r="K120" s="23"/>
+      <c r="L120" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="121" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A121" s="38">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>454</v>
+        <v>600</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="D121" s="25"/>
+        <v>601</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E121" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F121" s="35">
         <v>12</v>
@@ -25117,50 +25180,53 @@
       <c r="I121" s="23"/>
       <c r="J121" s="23"/>
       <c r="K121" s="23"/>
-    </row>
-    <row r="122" spans="1:13" ht="15" thickBot="1">
-      <c r="A122" s="39">
-        <v>598</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="D122" s="26"/>
+      <c r="L121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A122" s="38">
+        <v>97</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E122" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F122" s="35">
         <v>12</v>
       </c>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="26"/>
-      <c r="L122">
-        <f>VLOOKUP(B122,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M122" s="26" t="s">
-        <v>13</v>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="15" thickBot="1">
       <c r="A123" s="39">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="D123" s="26"/>
+        <v>626</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E123" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F123" s="35">
         <v>12</v>
@@ -25170,9 +25236,8 @@
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
       <c r="K123" s="26"/>
-      <c r="L123">
-        <f>VLOOKUP(B123,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L123" t="s">
+        <v>15</v>
       </c>
       <c r="M123" s="26" t="s">
         <v>13</v>
@@ -25180,17 +25245,19 @@
     </row>
     <row r="124" spans="1:13" ht="15" thickBot="1">
       <c r="A124" s="39">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="D124" s="26"/>
+        <v>627</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E124" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F124" s="35">
         <v>12</v>
@@ -25200,9 +25267,8 @@
       <c r="I124" s="26"/>
       <c r="J124" s="26"/>
       <c r="K124" s="26"/>
-      <c r="L124">
-        <f>VLOOKUP(B124,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L124" t="s">
+        <v>15</v>
       </c>
       <c r="M124" s="26" t="s">
         <v>13</v>
@@ -25210,17 +25276,19 @@
     </row>
     <row r="125" spans="1:13" ht="15" thickBot="1">
       <c r="A125" s="39">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D125" s="26"/>
+        <v>628</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E125" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F125" s="35">
         <v>12</v>
@@ -25230,50 +25298,59 @@
       <c r="I125" s="26"/>
       <c r="J125" s="26"/>
       <c r="K125" s="26"/>
-      <c r="L125">
-        <f>VLOOKUP(B125,'[1]Unit Test'!A:J,10,FALSE)</f>
-        <v>0</v>
+      <c r="L125" t="s">
+        <v>15</v>
       </c>
       <c r="M125" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A126" s="38">
-        <v>98</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="F126" s="34">
-        <v>13</v>
-      </c>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="23"/>
-      <c r="K126" s="23"/>
+    <row r="126" spans="1:13" ht="15" thickBot="1">
+      <c r="A126" s="39">
+        <v>607</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="F126" s="35">
+        <v>12</v>
+      </c>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" t="s">
+        <v>15</v>
+      </c>
+      <c r="M126" s="26" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="127" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A127" s="38">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="D127" s="24"/>
+        <v>603</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E127" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F127" s="34">
         <v>13</v>
@@ -25283,18 +25360,25 @@
       <c r="I127" s="23"/>
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
+      <c r="L127" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="128" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A128" s="38">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+        <v>476</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E128" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F128" s="34">
         <v>13</v>
@@ -25304,18 +25388,21 @@
       <c r="I128" s="23"/>
       <c r="J128" s="23"/>
       <c r="K128" s="23"/>
+      <c r="L128" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="129" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A129" s="38">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
       <c r="E129" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F129" s="34">
         <v>13</v>
@@ -25328,17 +25415,15 @@
     </row>
     <row r="130" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A130" s="38">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>550</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C130" s="24"/>
       <c r="D130" s="24"/>
       <c r="E130" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F130" s="34">
         <v>13</v>
@@ -25351,20 +25436,20 @@
     </row>
     <row r="131" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A131" s="38">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>477</v>
+        <v>563</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="D131" s="24"/>
       <c r="E131" s="24" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="F131" s="34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G131" s="23"/>
       <c r="H131" s="23"/>
@@ -25374,17 +25459,17 @@
     </row>
     <row r="132" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A132" s="38">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D132" s="24"/>
       <c r="E132" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F132" s="34">
         <v>14</v>
@@ -25397,17 +25482,17 @@
     </row>
     <row r="133" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A133" s="38">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D133" s="24"/>
       <c r="E133" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F133" s="34">
         <v>14</v>
@@ -25420,19 +25505,19 @@
     </row>
     <row r="134" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A134" s="38">
-        <v>106</v>
-      </c>
-      <c r="B134" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="C134" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="D134" s="41"/>
-      <c r="E134" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="F134" s="42">
+        <v>105</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="F134" s="34">
         <v>14</v>
       </c>
       <c r="G134" s="23"/>
@@ -25440,25 +25525,22 @@
       <c r="I134" s="23"/>
       <c r="J134" s="23"/>
       <c r="K134" s="23"/>
-      <c r="L134" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="135" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A135" s="38">
-        <v>107</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24" t="s">
-        <v>650</v>
-      </c>
-      <c r="F135" s="34">
+        <v>106</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41" t="s">
+        <v>649</v>
+      </c>
+      <c r="F135" s="42">
         <v>14</v>
       </c>
       <c r="G135" s="23"/>
@@ -25466,20 +25548,23 @@
       <c r="I135" s="23"/>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
+      <c r="L135" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="136" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A136" s="38">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D136" s="24"/>
       <c r="E136" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F136" s="34">
         <v>14</v>
@@ -25492,17 +25577,17 @@
     </row>
     <row r="137" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A137" s="38">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D137" s="24"/>
       <c r="E137" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F137" s="34">
         <v>14</v>
@@ -25515,17 +25600,17 @@
     </row>
     <row r="138" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A138" s="38">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F138" s="34">
         <v>14</v>
@@ -25538,17 +25623,17 @@
     </row>
     <row r="139" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
       <c r="A139" s="38">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F139" s="34">
         <v>14</v>
@@ -25559,36 +25644,59 @@
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
     </row>
-    <row r="140" spans="1:12" ht="0.6" customHeight="1">
-      <c r="A140" s="39">
+    <row r="140" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
+      <c r="A140" s="38">
+        <v>111</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="F140" s="34">
+        <v>14</v>
+      </c>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="23"/>
+      <c r="K140" s="23"/>
+    </row>
+    <row r="141" spans="1:12" ht="0.6" customHeight="1">
+      <c r="A141" s="39">
         <v>569</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B141" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" s="26"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="26"/>
-      <c r="L140">
-        <f>VLOOKUP(B140,'[1]Unit Test'!A:J,10,FALSE)</f>
+      <c r="C141" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="26"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
+      <c r="L141">
+        <f>VLOOKUP(B141,'[1]Unit Test'!A:J,10,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.6" customHeight="1"/>
+    <row r="151" ht="15.6" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:L154" xr:uid="{2F8EE910-8E6F-404B-BA4D-060668BC2CAF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L154">
-      <sortCondition ref="A1:A154"/>
+  <autoFilter ref="A1:L155" xr:uid="{2F8EE910-8E6F-404B-BA4D-060668BC2CAF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L155">
+      <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/Plan test - seguimiento .xlsx
+++ b/tests/Plan test - seguimiento .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B63C6-45AB-4F0C-B271-84B17EC3AA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC26BD-E64A-464B-B8A2-C0FEF1376397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="601" activeTab="1" xr2:uid="{297FDD56-996B-4A91-B117-D5E5BF79AC61}"/>
+    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="23280" windowHeight="12480" tabRatio="601" activeTab="1" xr2:uid="{297FDD56-996B-4A91-B117-D5E5BF79AC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="652">
   <si>
     <t>ID</t>
   </si>
@@ -1996,6 +1996,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  │ pending  │  (Created by Analysis Engine)</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2242,10 +2245,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2255,19 +2255,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2279,7 +2267,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,20 +2275,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2312,22 +2288,23 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2361,10 +2338,15 @@
       <sheetName val="Hoja2"/>
       <sheetName val="Agentes"/>
       <sheetName val="promt"/>
+      <sheetName val="plan test"/>
+      <sheetName val="lista frontend"/>
+      <sheetName val="Prmot frontend"/>
+      <sheetName val="lista IA "/>
+      <sheetName val="prmot llm"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -11061,10 +11043,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11389,26 +11376,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F10C4-C2EB-41C2-BD87-B191B0E5D966}">
   <dimension ref="A1:Q404"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K328" sqref="K328"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11439,7 +11426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.2" thickBot="1">
+    <row r="2" spans="1:11" ht="31.5" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -11470,7 +11457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.2" thickBot="1">
+    <row r="3" spans="1:11" ht="31.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -11498,7 +11485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.2" thickBot="1">
+    <row r="4" spans="1:11" ht="31.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -11526,7 +11513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="46.2" thickBot="1">
+    <row r="5" spans="1:11" ht="46.5" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -11554,7 +11541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31.2" thickBot="1">
+    <row r="6" spans="1:11" ht="31.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -11582,7 +11569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="31.2" thickBot="1">
+    <row r="7" spans="1:11" ht="31.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -11610,7 +11597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31.2" thickBot="1">
+    <row r="8" spans="1:11" ht="31.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -11638,7 +11625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.2" thickBot="1">
+    <row r="9" spans="1:11" ht="31.5" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -11666,7 +11653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.2" thickBot="1">
+    <row r="10" spans="1:11" ht="31.5" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -11694,7 +11681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31.2" thickBot="1">
+    <row r="11" spans="1:11" ht="31.5" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -11722,7 +11709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31.2" thickBot="1">
+    <row r="12" spans="1:11" ht="31.5" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -11750,7 +11737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.2" thickBot="1">
+    <row r="13" spans="1:11" ht="31.5" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -11778,7 +11765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.2" thickBot="1">
+    <row r="14" spans="1:11" ht="31.5" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -11806,7 +11793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="31.2" thickBot="1">
+    <row r="15" spans="1:11" ht="31.5" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11834,7 +11821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.2" thickBot="1">
+    <row r="16" spans="1:11" ht="31.5" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -11862,7 +11849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="31.2" thickBot="1">
+    <row r="17" spans="1:17" ht="31.5" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -11890,7 +11877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.2" thickBot="1">
+    <row r="18" spans="1:17" ht="46.5" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -11918,7 +11905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="31.2" thickBot="1">
+    <row r="19" spans="1:17" ht="31.5" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -11946,7 +11933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="31.2" thickBot="1">
+    <row r="20" spans="1:17" ht="31.5" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -11974,7 +11961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.2" thickBot="1">
+    <row r="21" spans="1:17" ht="31.5" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -12002,7 +11989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.2" thickBot="1">
+    <row r="22" spans="1:17" ht="31.5" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -12030,7 +12017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.2" thickBot="1">
+    <row r="23" spans="1:17" ht="31.5" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -12058,7 +12045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="31.2" thickBot="1">
+    <row r="24" spans="1:17" ht="31.5" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -12093,7 +12080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="31.2" thickBot="1">
+    <row r="25" spans="1:17" ht="31.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -12128,7 +12115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="31.2" thickBot="1">
+    <row r="26" spans="1:17" ht="31.5" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -12163,7 +12150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="31.2" thickBot="1">
+    <row r="27" spans="1:17" ht="31.5" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -12198,7 +12185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="31.2" thickBot="1">
+    <row r="28" spans="1:17" ht="31.5" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
@@ -12233,7 +12220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="31.2" thickBot="1">
+    <row r="29" spans="1:17" ht="31.5" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
@@ -12268,7 +12255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="31.2" thickBot="1">
+    <row r="30" spans="1:17" ht="31.5" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -12303,7 +12290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="31.2" thickBot="1">
+    <row r="31" spans="1:17" ht="31.5" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -12338,7 +12325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="31.2" thickBot="1">
+    <row r="32" spans="1:17" ht="31.5" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -12373,7 +12360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="31.2" thickBot="1">
+    <row r="33" spans="1:17" ht="31.5" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -12408,7 +12395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="31.2" thickBot="1">
+    <row r="34" spans="1:17" ht="31.5" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -12443,7 +12430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="31.2" thickBot="1">
+    <row r="35" spans="1:17" ht="31.5" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -12478,7 +12465,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="31.2" thickBot="1">
+    <row r="36" spans="1:17" ht="31.5" thickBot="1">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -12513,7 +12500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="31.2" thickBot="1">
+    <row r="37" spans="1:17" ht="31.5" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -12548,7 +12535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="31.2" thickBot="1">
+    <row r="38" spans="1:17" ht="31.5" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -12583,7 +12570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="31.2" thickBot="1">
+    <row r="39" spans="1:17" ht="31.5" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -12618,7 +12605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="31.2" thickBot="1">
+    <row r="40" spans="1:17" ht="31.5" thickBot="1">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
@@ -12653,7 +12640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="31.2" thickBot="1">
+    <row r="41" spans="1:17" ht="31.5" thickBot="1">
       <c r="A41" s="4" t="s">
         <v>73</v>
       </c>
@@ -12685,7 +12672,7 @@
         <v>TS-UC-SEC-MCP-003test_001_query_under_5s_allowed</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="31.2" thickBot="1">
+    <row r="42" spans="1:17" ht="31.5" thickBot="1">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -12717,7 +12704,7 @@
         <v>TS-UC-SEC-MCP-003test_002_query_at_5s_allowed</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="31.2" thickBot="1">
+    <row r="43" spans="1:17" ht="31.5" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
@@ -12749,7 +12736,7 @@
         <v>TS-UC-SEC-MCP-003test_003_query_over_5s_timeout_cancelled</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.2" thickBot="1">
+    <row r="44" spans="1:17" ht="31.5" thickBot="1">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -12781,7 +12768,7 @@
         <v>TS-UC-SEC-MCP-003test_004_query_result_under_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="31.2" thickBot="1">
+    <row r="45" spans="1:17" ht="31.5" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -12813,7 +12800,7 @@
         <v>TS-UC-SEC-MCP-003test_005_query_result_at_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="31.2" thickBot="1">
+    <row r="46" spans="1:17" ht="31.5" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>73</v>
       </c>
@@ -12845,7 +12832,7 @@
         <v>TS-UC-SEC-MCP-003test_006_query_result_over_1000_rows_truncated</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="31.2" thickBot="1">
+    <row r="47" spans="1:17" ht="31.5" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>73</v>
       </c>
@@ -12877,7 +12864,7 @@
         <v>TS-UC-SEC-MCP-003test_007_query_result_truncated_flag_set</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="31.2" thickBot="1">
+    <row r="48" spans="1:17" ht="31.5" thickBot="1">
       <c r="A48" s="4" t="s">
         <v>73</v>
       </c>
@@ -12909,7 +12896,7 @@
         <v>TS-UC-SEC-MCP-003test_008_timeout_returns_partial_results</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="31.2" thickBot="1">
+    <row r="49" spans="1:11" ht="31.5" thickBot="1">
       <c r="A49" s="4" t="s">
         <v>73</v>
       </c>
@@ -12941,7 +12928,7 @@
         <v>TS-UC-SEC-MCP-003test_009_timeout_audit_log_created</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="31.2" thickBot="1">
+    <row r="50" spans="1:11" ht="31.5" thickBot="1">
       <c r="A50" s="4" t="s">
         <v>73</v>
       </c>
@@ -12973,7 +12960,7 @@
         <v>TS-UC-SEC-MCP-003test_010_row_limit_audit_log_created</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="31.2" thickBot="1">
+    <row r="51" spans="1:11" ht="31.5" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>73</v>
       </c>
@@ -13005,7 +12992,7 @@
         <v>TS-UC-SEC-MCP-003test_011_combined_timeout_and_row_limit</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="31.2" thickBot="1">
+    <row r="52" spans="1:11" ht="31.5" thickBot="1">
       <c r="A52" s="4" t="s">
         <v>73</v>
       </c>
@@ -13037,7 +13024,7 @@
         <v>TS-UC-SEC-MCP-003test_012_query_limit_config_per_tenant</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="31.2" thickBot="1">
+    <row r="53" spans="1:11" ht="31.5" thickBot="1">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
@@ -13069,7 +13056,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_001_exactly_1000_rows</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="31.2" thickBot="1">
+    <row r="54" spans="1:11" ht="31.5" thickBot="1">
       <c r="A54" s="4" t="s">
         <v>73</v>
       </c>
@@ -13101,7 +13088,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_002_empty_result_set</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="31.2" thickBot="1">
+    <row r="55" spans="1:11" ht="31.5" thickBot="1">
       <c r="A55" s="4" t="s">
         <v>73</v>
       </c>
@@ -13133,7 +13120,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_003_streaming_query_timeout</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="31.2" thickBot="1">
+    <row r="56" spans="1:11" ht="31.5" thickBot="1">
       <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
@@ -13165,7 +13152,7 @@
         <v>TS-UC-SEC-ANO-001test_001_detect_dni_valid_12345678Z</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="31.2" thickBot="1">
+    <row r="57" spans="1:11" ht="31.5" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>91</v>
       </c>
@@ -13197,7 +13184,7 @@
         <v>TS-UC-SEC-ANO-001test_002_detect_dni_valid_87654321X</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="31.2" thickBot="1">
+    <row r="58" spans="1:11" ht="31.5" thickBot="1">
       <c r="A58" s="4" t="s">
         <v>91</v>
       </c>
@@ -13229,7 +13216,7 @@
         <v>TS-UC-SEC-ANO-001test_003_detect_dni_invalid_length_9_digits</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="31.2" thickBot="1">
+    <row r="59" spans="1:11" ht="31.5" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>91</v>
       </c>
@@ -13261,7 +13248,7 @@
         <v>TS-UC-SEC-ANO-001test_004_detect_dni_invalid_length_7_digits</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="31.2" thickBot="1">
+    <row r="60" spans="1:11" ht="31.5" thickBot="1">
       <c r="A60" s="4" t="s">
         <v>91</v>
       </c>
@@ -13293,7 +13280,7 @@
         <v>TS-UC-SEC-ANO-001test_005_detect_dni_invalid_letter_checksum</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="31.2" thickBot="1">
+    <row r="61" spans="1:11" ht="31.5" thickBot="1">
       <c r="A61" s="4" t="s">
         <v>91</v>
       </c>
@@ -13325,7 +13312,7 @@
         <v>TS-UC-SEC-ANO-001test_006_detect_multiple_dnis_in_text</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="31.2" thickBot="1">
+    <row r="62" spans="1:11" ht="31.5" thickBot="1">
       <c r="A62" s="4" t="s">
         <v>91</v>
       </c>
@@ -13357,7 +13344,7 @@
         <v>TS-UC-SEC-ANO-001test_007_detect_email_simple</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="31.2" thickBot="1">
+    <row r="63" spans="1:11" ht="31.5" thickBot="1">
       <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
@@ -13389,7 +13376,7 @@
         <v>TS-UC-SEC-ANO-001test_008_detect_email_with_subdomain</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="31.2" thickBot="1">
+    <row r="64" spans="1:11" ht="31.5" thickBot="1">
       <c r="A64" s="4" t="s">
         <v>91</v>
       </c>
@@ -13421,7 +13408,7 @@
         <v>TS-UC-SEC-ANO-001test_009_detect_email_with_plus_sign</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="31.2" thickBot="1">
+    <row r="65" spans="1:11" ht="31.5" thickBot="1">
       <c r="A65" s="4" t="s">
         <v>91</v>
       </c>
@@ -13453,7 +13440,7 @@
         <v>TS-UC-SEC-ANO-001test_010_detect_email_invalid_no_at</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="31.2" thickBot="1">
+    <row r="66" spans="1:11" ht="31.5" thickBot="1">
       <c r="A66" s="4" t="s">
         <v>91</v>
       </c>
@@ -13485,7 +13472,7 @@
         <v>TS-UC-SEC-ANO-001test_011_detect_multiple_emails_in_text</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="31.2" thickBot="1">
+    <row r="67" spans="1:11" ht="31.5" thickBot="1">
       <c r="A67" s="4" t="s">
         <v>91</v>
       </c>
@@ -13517,7 +13504,7 @@
         <v>TS-UC-SEC-ANO-001test_012_detect_phone_mobile_612345678</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="31.2" thickBot="1">
+    <row r="68" spans="1:11" ht="31.5" thickBot="1">
       <c r="A68" s="4" t="s">
         <v>91</v>
       </c>
@@ -13549,7 +13536,7 @@
         <v>TS-UC-SEC-ANO-001test_013_detect_phone_mobile_with_prefix_34</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="31.2" thickBot="1">
+    <row r="69" spans="1:11" ht="31.5" thickBot="1">
       <c r="A69" s="4" t="s">
         <v>91</v>
       </c>
@@ -13581,7 +13568,7 @@
         <v>TS-UC-SEC-ANO-001test_014_detect_phone_landline_912345678</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="31.2" thickBot="1">
+    <row r="70" spans="1:11" ht="31.5" thickBot="1">
       <c r="A70" s="4" t="s">
         <v>91</v>
       </c>
@@ -13613,7 +13600,7 @@
         <v>TS-UC-SEC-ANO-001test_015_detect_phone_invalid_short</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="31.2" thickBot="1">
+    <row r="71" spans="1:11" ht="31.5" thickBot="1">
       <c r="A71" s="4" t="s">
         <v>91</v>
       </c>
@@ -13645,7 +13632,7 @@
         <v>TS-UC-SEC-ANO-001test_016_detect_multiple_phones_in_text</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="31.2" thickBot="1">
+    <row r="72" spans="1:11" ht="31.5" thickBot="1">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
@@ -13677,7 +13664,7 @@
         <v>TS-UC-SEC-ANO-001test_017_detect_iban_spain_valid</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="31.2" thickBot="1">
+    <row r="73" spans="1:11" ht="31.5" thickBot="1">
       <c r="A73" s="4" t="s">
         <v>91</v>
       </c>
@@ -13709,7 +13696,7 @@
         <v>TS-UC-SEC-ANO-001test_018_detect_iban_germany_valid</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="31.2" thickBot="1">
+    <row r="74" spans="1:11" ht="31.5" thickBot="1">
       <c r="A74" s="4" t="s">
         <v>91</v>
       </c>
@@ -13741,7 +13728,7 @@
         <v>TS-UC-SEC-ANO-001test_019_detect_iban_invalid_checksum</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="31.2" thickBot="1">
+    <row r="75" spans="1:11" ht="31.5" thickBot="1">
       <c r="A75" s="4" t="s">
         <v>91</v>
       </c>
@@ -13773,7 +13760,7 @@
         <v>TS-UC-SEC-ANO-001test_020_detect_iban_invalid_length</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="31.2" thickBot="1">
+    <row r="76" spans="1:11" ht="31.5" thickBot="1">
       <c r="A76" s="4" t="s">
         <v>91</v>
       </c>
@@ -13805,7 +13792,7 @@
         <v>TS-UC-SEC-ANO-001test_021_detect_all_pii_types_in_document</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="31.2" thickBot="1">
+    <row r="77" spans="1:11" ht="31.5" thickBot="1">
       <c r="A77" s="4" t="s">
         <v>91</v>
       </c>
@@ -13837,7 +13824,7 @@
         <v>TS-UC-SEC-ANO-001test_022_detect_no_pii_clean_document</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="31.2" thickBot="1">
+    <row r="78" spans="1:11" ht="31.5" thickBot="1">
       <c r="A78" s="4" t="s">
         <v>91</v>
       </c>
@@ -13869,7 +13856,7 @@
         <v>TS-UC-SEC-ANO-001test_023_detect_pii_positions_returned</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="31.2" thickBot="1">
+    <row r="79" spans="1:11" ht="31.5" thickBot="1">
       <c r="A79" s="4" t="s">
         <v>91</v>
       </c>
@@ -13901,7 +13888,7 @@
         <v>TS-UC-SEC-ANO-001test_024_detect_pii_counts_by_type</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="31.2" thickBot="1">
+    <row r="80" spans="1:11" ht="31.5" thickBot="1">
       <c r="A80" s="4" t="s">
         <v>91</v>
       </c>
@@ -13933,7 +13920,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_001_pii_in_different_languages</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="31.2" thickBot="1">
+    <row r="81" spans="1:11" ht="31.5" thickBot="1">
       <c r="A81" s="4" t="s">
         <v>91</v>
       </c>
@@ -13965,7 +13952,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_002_pii_with_unicode_characters</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="31.2" thickBot="1">
+    <row r="82" spans="1:11" ht="31.5" thickBot="1">
       <c r="A82" s="4" t="s">
         <v>91</v>
       </c>
@@ -13988,7 +13975,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_003_pii_in_html_escaped_text</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="31.2" thickBot="1">
+    <row r="83" spans="1:11" ht="31.5" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>120</v>
       </c>
@@ -14017,7 +14004,7 @@
         <v>TS-UC-SEC-ANO-002test_001_redact_dni_to_redacted</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="31.2" thickBot="1">
+    <row r="84" spans="1:11" ht="31.5" thickBot="1">
       <c r="A84" s="4" t="s">
         <v>120</v>
       </c>
@@ -14046,7 +14033,7 @@
         <v>TS-UC-SEC-ANO-002test_002_redact_email_to_redacted</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="31.2" thickBot="1">
+    <row r="85" spans="1:11" ht="31.5" thickBot="1">
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
@@ -14075,7 +14062,7 @@
         <v>TS-UC-SEC-ANO-002test_003_redact_phone_to_redacted</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="31.2" thickBot="1">
+    <row r="86" spans="1:11" ht="31.5" thickBot="1">
       <c r="A86" s="4" t="s">
         <v>120</v>
       </c>
@@ -14104,7 +14091,7 @@
         <v>TS-UC-SEC-ANO-002test_004_redact_multiple_pii_all_redacted</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="31.2" thickBot="1">
+    <row r="87" spans="1:11" ht="31.5" thickBot="1">
       <c r="A87" s="4" t="s">
         <v>120</v>
       </c>
@@ -14133,7 +14120,7 @@
         <v>TS-UC-SEC-ANO-002test_005_hash_dni_deterministic</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="31.2" thickBot="1">
+    <row r="88" spans="1:11" ht="31.5" thickBot="1">
       <c r="A88" s="4" t="s">
         <v>120</v>
       </c>
@@ -14162,7 +14149,7 @@
         <v>TS-UC-SEC-ANO-002test_006_hash_same_value_same_hash</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="31.2" thickBot="1">
+    <row r="89" spans="1:11" ht="31.5" thickBot="1">
       <c r="A89" s="4" t="s">
         <v>120</v>
       </c>
@@ -14191,7 +14178,7 @@
         <v>TS-UC-SEC-ANO-002test_007_hash_different_values_different_hash</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="31.2" thickBot="1">
+    <row r="90" spans="1:11" ht="31.5" thickBot="1">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -14220,7 +14207,7 @@
         <v>TS-UC-SEC-ANO-002test_008_hash_irreversible_validation</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="31.2" thickBot="1">
+    <row r="91" spans="1:11" ht="31.5" thickBot="1">
       <c r="A91" s="4" t="s">
         <v>120</v>
       </c>
@@ -14249,7 +14236,7 @@
         <v>TS-UC-SEC-ANO-002test_009_pseudonymize_name_to_persona_001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="31.2" thickBot="1">
+    <row r="92" spans="1:11" ht="31.5" thickBot="1">
       <c r="A92" s="4" t="s">
         <v>120</v>
       </c>
@@ -14278,7 +14265,7 @@
         <v>TS-UC-SEC-ANO-002test_010_pseudonymize_consistent_same_name</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="31.2" thickBot="1">
+    <row r="93" spans="1:11" ht="46.5" thickBot="1">
       <c r="A93" s="4" t="s">
         <v>120</v>
       </c>
@@ -14307,7 +14294,7 @@
         <v>TS-UC-SEC-ANO-002test_011_pseudonymize_different_names_different_ids</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="31.2" thickBot="1">
+    <row r="94" spans="1:11" ht="31.5" thickBot="1">
       <c r="A94" s="4" t="s">
         <v>120</v>
       </c>
@@ -14336,7 +14323,7 @@
         <v>TS-UC-SEC-ANO-002test_012_pseudonymize_in_context_preserved</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="31.2" thickBot="1">
+    <row r="95" spans="1:11" ht="31.5" thickBot="1">
       <c r="A95" s="4" t="s">
         <v>120</v>
       </c>
@@ -14365,7 +14352,7 @@
         <v>TS-UC-SEC-ANO-002test_013_strategy_by_pii_type_default</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="31.2" thickBot="1">
+    <row r="96" spans="1:11" ht="31.5" thickBot="1">
       <c r="A96" s="4" t="s">
         <v>120</v>
       </c>
@@ -14394,7 +14381,7 @@
         <v>TS-UC-SEC-ANO-002test_014_strategy_by_tenant_config</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="31.2" thickBot="1">
+    <row r="97" spans="1:11" ht="31.5" thickBot="1">
       <c r="A97" s="4" t="s">
         <v>120</v>
       </c>
@@ -14423,7 +14410,7 @@
         <v>TS-UC-SEC-ANO-002test_015_strategy_mixed_per_type</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="31.2" thickBot="1">
+    <row r="98" spans="1:11" ht="31.5" thickBot="1">
       <c r="A98" s="4" t="s">
         <v>120</v>
       </c>
@@ -14452,7 +14439,7 @@
         <v>TS-UC-SEC-ANO-002test_016_strategy_none_keeps_original</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="31.2" thickBot="1">
+    <row r="99" spans="1:11" ht="31.5" thickBot="1">
       <c r="A99" s="4" t="s">
         <v>120</v>
       </c>
@@ -14481,7 +14468,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_001_nested_pii_in_pii</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="31.2" thickBot="1">
+    <row r="100" spans="1:11" ht="31.5" thickBot="1">
       <c r="A100" s="4" t="s">
         <v>120</v>
       </c>
@@ -14510,7 +14497,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_002_overlapping_pii_positions</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="31.2" thickBot="1">
+    <row r="101" spans="1:11" ht="31.5" thickBot="1">
       <c r="A101" s="4" t="s">
         <v>120</v>
       </c>
@@ -14539,7 +14526,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_003_empty_text_no_error</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="16.2" thickBot="1">
+    <row r="102" spans="1:11" ht="16.5" thickBot="1">
       <c r="A102" s="4" t="s">
         <v>141</v>
       </c>
@@ -14568,7 +14555,7 @@
         <v>TS-UC-SEC-ANO-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="16.2" thickBot="1">
+    <row r="103" spans="1:11" ht="16.5" thickBot="1">
       <c r="A103" s="4" t="s">
         <v>144</v>
       </c>
@@ -14597,7 +14584,7 @@
         <v>TS-UC-SEC-TNT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="16.2" thickBot="1">
+    <row r="104" spans="1:11" ht="16.5" thickBot="1">
       <c r="A104" s="4" t="s">
         <v>145</v>
       </c>
@@ -14623,7 +14610,7 @@
         <v>TS-UC-SEC-JWT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="16.2" thickBot="1">
+    <row r="105" spans="1:11" ht="16.5" thickBot="1">
       <c r="A105" s="4" t="s">
         <v>146</v>
       </c>
@@ -14649,7 +14636,7 @@
         <v>TS-UC-SEC-AUD-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="31.2" thickBot="1">
+    <row r="106" spans="1:11" ht="31.5" thickBot="1">
       <c r="A106" s="4" t="s">
         <v>147</v>
       </c>
@@ -14678,7 +14665,7 @@
         <v>TS-UC-SEC-GAM-001test_001_mass_changes_11_in_hour_detected</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="31.2" thickBot="1">
+    <row r="107" spans="1:11" ht="31.5" thickBot="1">
       <c r="A107" s="4" t="s">
         <v>147</v>
       </c>
@@ -14707,7 +14694,7 @@
         <v>TS-UC-SEC-GAM-001test_002_mass_changes_10_in_hour_allowed</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="31.2" thickBot="1">
+    <row r="108" spans="1:11" ht="31.5" thickBot="1">
       <c r="A108" s="4" t="s">
         <v>147</v>
       </c>
@@ -14736,7 +14723,7 @@
         <v>TS-UC-SEC-GAM-001test_003_mass_changes_window_reset</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="31.2" thickBot="1">
+    <row r="109" spans="1:11" ht="31.5" thickBot="1">
       <c r="A109" s="4" t="s">
         <v>147</v>
       </c>
@@ -14765,7 +14752,7 @@
         <v>TS-UC-SEC-GAM-001test_004_resolve_reintroduce_3_times_detected</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="31.2" thickBot="1">
+    <row r="110" spans="1:11" ht="31.5" thickBot="1">
       <c r="A110" s="4" t="s">
         <v>147</v>
       </c>
@@ -14794,7 +14781,7 @@
         <v>TS-UC-SEC-GAM-001test_005_resolve_reintroduce_2_times_allowed</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="31.2" thickBot="1">
+    <row r="111" spans="1:11" ht="31.5" thickBot="1">
       <c r="A111" s="4" t="s">
         <v>147</v>
       </c>
@@ -14823,7 +14810,7 @@
         <v>TS-UC-SEC-GAM-001test_006_resolve_reintroduce_different_hash_allowed</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="31.2" thickBot="1">
+    <row r="112" spans="1:11" ht="31.5" thickBot="1">
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
@@ -14852,7 +14839,7 @@
         <v>TS-UC-SEC-GAM-001test_007_high_score_few_docs_detected</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="31.2" thickBot="1">
+    <row r="113" spans="1:11" ht="31.5" thickBot="1">
       <c r="A113" s="4" t="s">
         <v>147</v>
       </c>
@@ -14881,7 +14868,7 @@
         <v>TS-UC-SEC-GAM-001test_008_high_score_many_docs_allowed</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="31.2" thickBot="1">
+    <row r="114" spans="1:11" ht="31.5" thickBot="1">
       <c r="A114" s="4" t="s">
         <v>147</v>
       </c>
@@ -14910,7 +14897,7 @@
         <v>TS-UC-SEC-GAM-001test_009_high_score_threshold_boundary</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="31.2" thickBot="1">
+    <row r="115" spans="1:11" ht="31.5" thickBot="1">
       <c r="A115" s="4" t="s">
         <v>147</v>
       </c>
@@ -14939,7 +14926,7 @@
         <v>TS-UC-SEC-GAM-001test_010_weight_change_25_percent_detected</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="31.2" thickBot="1">
+    <row r="116" spans="1:11" ht="31.5" thickBot="1">
       <c r="A116" s="4" t="s">
         <v>147</v>
       </c>
@@ -14968,7 +14955,7 @@
         <v>TS-UC-SEC-GAM-001test_011_weight_change_15_percent_allowed</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="31.2" thickBot="1">
+    <row r="117" spans="1:11" ht="31.5" thickBot="1">
       <c r="A117" s="4" t="s">
         <v>147</v>
       </c>
@@ -14997,7 +14984,7 @@
         <v>TS-UC-SEC-GAM-001test_012_weight_change_tracking_24h_window</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="31.2" thickBot="1">
+    <row r="118" spans="1:11" ht="31.5" thickBot="1">
       <c r="A118" s="4" t="s">
         <v>147</v>
       </c>
@@ -15026,7 +15013,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_001_multiple_violations_combined</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="31.2" thickBot="1">
+    <row r="119" spans="1:11" ht="31.5" thickBot="1">
       <c r="A119" s="4" t="s">
         <v>147</v>
       </c>
@@ -15055,7 +15042,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_002_violation_penalty_application</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="31.2" thickBot="1">
+    <row r="120" spans="1:11" ht="31.5" thickBot="1">
       <c r="A120" s="4" t="s">
         <v>147</v>
       </c>
@@ -15084,7 +15071,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_003_violation_audit_logging</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="31.2" thickBot="1">
+    <row r="121" spans="1:11" ht="31.5" thickBot="1">
       <c r="A121" s="4" t="s">
         <v>163</v>
       </c>
@@ -15116,7 +15103,7 @@
         <v>TS-UD-DOC-CLS-001test_001_clause_creation_with_all_fields</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="31.2" thickBot="1">
+    <row r="122" spans="1:11" ht="31.5" thickBot="1">
       <c r="A122" s="4" t="s">
         <v>163</v>
       </c>
@@ -15145,7 +15132,7 @@
         <v>TS-UD-DOC-CLS-001test_002_clause_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="31.2" thickBot="1">
+    <row r="123" spans="1:11" ht="31.5" thickBot="1">
       <c r="A123" s="4" t="s">
         <v>163</v>
       </c>
@@ -15174,7 +15161,7 @@
         <v>TS-UD-DOC-CLS-001test_003_clause_creation_fails_without_content</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="31.2" thickBot="1">
+    <row r="124" spans="1:11" ht="31.5" thickBot="1">
       <c r="A124" s="4" t="s">
         <v>163</v>
       </c>
@@ -15203,7 +15190,7 @@
         <v>TS-UD-DOC-CLS-001test_004_clause_creation_fails_without_document_id</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="31.2" thickBot="1">
+    <row r="125" spans="1:11" ht="31.5" thickBot="1">
       <c r="A125" s="4" t="s">
         <v>163</v>
       </c>
@@ -15232,7 +15219,7 @@
         <v>TS-UD-DOC-CLS-001test_005_clause_creation_fails_without_tenant_id</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="31.2" thickBot="1">
+    <row r="126" spans="1:11" ht="31.5" thickBot="1">
       <c r="A126" s="4" t="s">
         <v>163</v>
       </c>
@@ -15261,7 +15248,7 @@
         <v>TS-UD-DOC-CLS-001test_006_clause_immutability_after_creation</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="31.2" thickBot="1">
+    <row r="127" spans="1:11" ht="31.5" thickBot="1">
       <c r="A127" s="4" t="s">
         <v>163</v>
       </c>
@@ -15290,7 +15277,7 @@
         <v>TS-UD-DOC-CLS-001test_007_clause_number_format_primera</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="31.2" thickBot="1">
+    <row r="128" spans="1:11" ht="31.5" thickBot="1">
       <c r="A128" s="4" t="s">
         <v>163</v>
       </c>
@@ -15319,7 +15306,7 @@
         <v>TS-UD-DOC-CLS-001test_008_clause_number_format_numeric</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="31.2" thickBot="1">
+    <row r="129" spans="1:11" ht="31.5" thickBot="1">
       <c r="A129" s="4" t="s">
         <v>163</v>
       </c>
@@ -15348,7 +15335,7 @@
         <v>TS-UD-DOC-CLS-001test_009_clause_number_format_decimal</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="31.2" thickBot="1">
+    <row r="130" spans="1:11" ht="31.5" thickBot="1">
       <c r="A130" s="4" t="s">
         <v>163</v>
       </c>
@@ -15377,7 +15364,7 @@
         <v>TS-UD-DOC-CLS-001test_010_clause_number_normalization</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="31.2" thickBot="1">
+    <row r="131" spans="1:11" ht="31.5" thickBot="1">
       <c r="A131" s="4" t="s">
         <v>163</v>
       </c>
@@ -15406,7 +15393,7 @@
         <v>TS-UD-DOC-CLS-001test_011_clause_content_max_length</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="31.2" thickBot="1">
+    <row r="132" spans="1:11" ht="31.5" thickBot="1">
       <c r="A132" s="4" t="s">
         <v>163</v>
       </c>
@@ -15435,7 +15422,7 @@
         <v>TS-UD-DOC-CLS-001test_012_clause_content_empty_rejected</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="31.2" thickBot="1">
+    <row r="133" spans="1:11" ht="31.5" thickBot="1">
       <c r="A133" s="4" t="s">
         <v>163</v>
       </c>
@@ -15464,7 +15451,7 @@
         <v>TS-UD-DOC-CLS-001test_013_clause_document_fk_valid</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="31.2" thickBot="1">
+    <row r="134" spans="1:11" ht="31.5" thickBot="1">
       <c r="A134" s="4" t="s">
         <v>163</v>
       </c>
@@ -15493,7 +15480,7 @@
         <v>TS-UD-DOC-CLS-001test_014_clause_document_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="31.2" thickBot="1">
+    <row r="135" spans="1:11" ht="31.5" thickBot="1">
       <c r="A135" s="4" t="s">
         <v>163</v>
       </c>
@@ -15522,7 +15509,7 @@
         <v>TS-UD-DOC-CLS-001test_015_clause_tenant_fk_valid</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="31.2" thickBot="1">
+    <row r="136" spans="1:11" ht="31.5" thickBot="1">
       <c r="A136" s="4" t="s">
         <v>163</v>
       </c>
@@ -15551,7 +15538,7 @@
         <v>TS-UD-DOC-CLS-001test_016_clause_tenant_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="31.2" thickBot="1">
+    <row r="137" spans="1:11" ht="31.5" thickBot="1">
       <c r="A137" s="4" t="s">
         <v>163</v>
       </c>
@@ -15580,7 +15567,7 @@
         <v>TS-UD-DOC-CLS-001test_017_clause_on_delete_restrict_document</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="31.2" thickBot="1">
+    <row r="138" spans="1:11" ht="31.5" thickBot="1">
       <c r="A138" s="4" t="s">
         <v>163</v>
       </c>
@@ -15609,7 +15596,7 @@
         <v>TS-UD-DOC-CLS-001test_018_clause_on_delete_restrict_tenant</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="31.2" thickBot="1">
+    <row r="139" spans="1:11" ht="31.5" thickBot="1">
       <c r="A139" s="4" t="s">
         <v>163</v>
       </c>
@@ -15638,7 +15625,7 @@
         <v>TS-UD-DOC-CLS-001test_019_clause_embedding_vector_size</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="31.2" thickBot="1">
+    <row r="140" spans="1:11" ht="31.5" thickBot="1">
       <c r="A140" s="4" t="s">
         <v>163</v>
       </c>
@@ -15667,7 +15654,7 @@
         <v>TS-UD-DOC-CLS-001test_020_clause_embedding_generation</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="31.2" thickBot="1">
+    <row r="141" spans="1:11" ht="31.5" thickBot="1">
       <c r="A141" s="4" t="s">
         <v>163</v>
       </c>
@@ -15696,7 +15683,7 @@
         <v>TS-UD-DOC-CLS-001test_021_clause_embedding_null_allowed</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="31.2" thickBot="1">
+    <row r="142" spans="1:11" ht="31.5" thickBot="1">
       <c r="A142" s="4" t="s">
         <v>163</v>
       </c>
@@ -15725,7 +15712,7 @@
         <v>TS-UD-DOC-CLS-001test_022_clause_embedding_update</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="16.2" thickBot="1">
+    <row r="143" spans="1:11" ht="16.5" thickBot="1">
       <c r="A143" s="4" t="s">
         <v>189</v>
       </c>
@@ -15754,7 +15741,7 @@
         <v>TS-UD-DOC-CLS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="16.2" thickBot="1">
+    <row r="144" spans="1:11" ht="16.5" thickBot="1">
       <c r="A144" s="4" t="s">
         <v>191</v>
       </c>
@@ -15780,7 +15767,7 @@
         <v>TS-UD-DOC-CLS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="31.2" thickBot="1">
+    <row r="145" spans="1:11" ht="31.5" thickBot="1">
       <c r="A145" s="4" t="s">
         <v>192</v>
       </c>
@@ -15809,7 +15796,7 @@
         <v>TS-UD-DOC-ENT-001test_001_date_dd_mm_yyyy_slash</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="31.2" thickBot="1">
+    <row r="146" spans="1:11" ht="31.5" thickBot="1">
       <c r="A146" s="4" t="s">
         <v>192</v>
       </c>
@@ -15838,7 +15825,7 @@
         <v>TS-UD-DOC-ENT-001test_002_date_yyyy_mm_dd_dash</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="31.2" thickBot="1">
+    <row r="147" spans="1:11" ht="31.5" thickBot="1">
       <c r="A147" s="4" t="s">
         <v>192</v>
       </c>
@@ -15867,7 +15854,7 @@
         <v>TS-UD-DOC-ENT-001test_003_date_dd_month_yyyy_spanish</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="31.2" thickBot="1">
+    <row r="148" spans="1:11" ht="31.5" thickBot="1">
       <c r="A148" s="4" t="s">
         <v>192</v>
       </c>
@@ -15896,7 +15883,7 @@
         <v>TS-UD-DOC-ENT-001test_004_date_month_dd_yyyy_english</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="31.2" thickBot="1">
+    <row r="149" spans="1:11" ht="31.5" thickBot="1">
       <c r="A149" s="4" t="s">
         <v>192</v>
       </c>
@@ -15925,7 +15912,7 @@
         <v>TS-UD-DOC-ENT-001test_005_date_relative_30_days</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="31.2" thickBot="1">
+    <row r="150" spans="1:11" ht="31.5" thickBot="1">
       <c r="A150" s="4" t="s">
         <v>192</v>
       </c>
@@ -15954,7 +15941,7 @@
         <v>TS-UD-DOC-ENT-001test_006_date_relative_3_months</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="31.2" thickBot="1">
+    <row r="151" spans="1:11" ht="31.5" thickBot="1">
       <c r="A151" s="4" t="s">
         <v>192</v>
       </c>
@@ -15983,7 +15970,7 @@
         <v>TS-UD-DOC-ENT-001test_007_date_relative_1_year</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="31.2" thickBot="1">
+    <row r="152" spans="1:11" ht="31.5" thickBot="1">
       <c r="A152" s="4" t="s">
         <v>192</v>
       </c>
@@ -16012,7 +15999,7 @@
         <v>TS-UD-DOC-ENT-001test_008_date_relative_from_date</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="31.2" thickBot="1">
+    <row r="153" spans="1:11" ht="31.5" thickBot="1">
       <c r="A153" s="4" t="s">
         <v>192</v>
       </c>
@@ -16041,7 +16028,7 @@
         <v>TS-UD-DOC-ENT-001test_009_date_context_entrega</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="31.2" thickBot="1">
+    <row r="154" spans="1:11" ht="31.5" thickBot="1">
       <c r="A154" s="4" t="s">
         <v>192</v>
       </c>
@@ -16070,7 +16057,7 @@
         <v>TS-UD-DOC-ENT-001test_010_date_context_firma</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="31.2" thickBot="1">
+    <row r="155" spans="1:11" ht="31.5" thickBot="1">
       <c r="A155" s="4" t="s">
         <v>192</v>
       </c>
@@ -16099,7 +16086,7 @@
         <v>TS-UD-DOC-ENT-001test_011_date_context_inicio</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="16.2" thickBot="1">
+    <row r="156" spans="1:11" ht="16.5" thickBot="1">
       <c r="A156" s="4" t="s">
         <v>192</v>
       </c>
@@ -16128,7 +16115,7 @@
         <v>TS-UD-DOC-ENT-001test_012_date_context_fin</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="31.2" thickBot="1">
+    <row r="157" spans="1:11" ht="31.5" thickBot="1">
       <c r="A157" s="4" t="s">
         <v>192</v>
       </c>
@@ -16157,7 +16144,7 @@
         <v>TS-UD-DOC-ENT-001test_013_multiple_dates_extraction</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="31.2" thickBot="1">
+    <row r="158" spans="1:11" ht="31.5" thickBot="1">
       <c r="A158" s="4" t="s">
         <v>192</v>
       </c>
@@ -16186,7 +16173,7 @@
         <v>TS-UD-DOC-ENT-001test_014_multiple_dates_ordering</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="31.2" thickBot="1">
+    <row r="159" spans="1:11" ht="31.5" thickBot="1">
       <c r="A159" s="4" t="s">
         <v>192</v>
       </c>
@@ -16215,7 +16202,7 @@
         <v>TS-UD-DOC-ENT-001test_015_date_range_extraction</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="31.2" thickBot="1">
+    <row r="160" spans="1:11" ht="31.5" thickBot="1">
       <c r="A160" s="4" t="s">
         <v>192</v>
       </c>
@@ -16244,7 +16231,7 @@
         <v>TS-UD-DOC-ENT-001test_016_date_invalid_format_ignored</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="31.2" thickBot="1">
+    <row r="161" spans="1:11" ht="31.5" thickBot="1">
       <c r="A161" s="4" t="s">
         <v>210</v>
       </c>
@@ -16273,7 +16260,7 @@
         <v>TS-UD-DOC-ENT-002test_001_money_eur_symbol_suffix</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="31.2" thickBot="1">
+    <row r="162" spans="1:11" ht="31.5" thickBot="1">
       <c r="A162" s="4" t="s">
         <v>210</v>
       </c>
@@ -16302,7 +16289,7 @@
         <v>TS-UD-DOC-ENT-002test_002_money_eur_symbol_prefix</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="31.2" thickBot="1">
+    <row r="163" spans="1:11" ht="31.5" thickBot="1">
       <c r="A163" s="4" t="s">
         <v>210</v>
       </c>
@@ -16331,7 +16318,7 @@
         <v>TS-UD-DOC-ENT-002test_003_money_eur_word_euros</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="31.2" thickBot="1">
+    <row r="164" spans="1:11" ht="31.5" thickBot="1">
       <c r="A164" s="4" t="s">
         <v>210</v>
       </c>
@@ -16360,7 +16347,7 @@
         <v>TS-UD-DOC-ENT-002test_004_money_eur_thousands_separator</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="31.2" thickBot="1">
+    <row r="165" spans="1:11" ht="31.5" thickBot="1">
       <c r="A165" s="4" t="s">
         <v>210</v>
       </c>
@@ -16389,7 +16376,7 @@
         <v>TS-UD-DOC-ENT-002test_005_money_usd_symbol</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="16.2" thickBot="1">
+    <row r="166" spans="1:11" ht="31.5" thickBot="1">
       <c r="A166" s="4" t="s">
         <v>210</v>
       </c>
@@ -16418,7 +16405,7 @@
         <v>TS-UD-DOC-ENT-002test_006_money_usd_word</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="31.2" thickBot="1">
+    <row r="167" spans="1:11" ht="31.5" thickBot="1">
       <c r="A167" s="4" t="s">
         <v>210</v>
       </c>
@@ -16447,7 +16434,7 @@
         <v>TS-UD-DOC-ENT-002test_007_money_usd_thousands_separator</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="31.2" thickBot="1">
+    <row r="168" spans="1:11" ht="31.5" thickBot="1">
       <c r="A168" s="4" t="s">
         <v>210</v>
       </c>
@@ -16476,7 +16463,7 @@
         <v>TS-UD-DOC-ENT-002test_008_money_context_anticipo</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="31.2" thickBot="1">
+    <row r="169" spans="1:11" ht="31.5" thickBot="1">
       <c r="A169" s="4" t="s">
         <v>210</v>
       </c>
@@ -16505,7 +16492,7 @@
         <v>TS-UD-DOC-ENT-002test_009_money_context_pago_final</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="31.2" thickBot="1">
+    <row r="170" spans="1:11" ht="31.5" thickBot="1">
       <c r="A170" s="4" t="s">
         <v>210</v>
       </c>
@@ -16534,7 +16521,7 @@
         <v>TS-UD-DOC-ENT-002test_010_money_context_penalizacion</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="31.2" thickBot="1">
+    <row r="171" spans="1:11" ht="31.5" thickBot="1">
       <c r="A171" s="4" t="s">
         <v>210</v>
       </c>
@@ -16563,7 +16550,7 @@
         <v>TS-UD-DOC-ENT-002test_011_money_context_total</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="31.2" thickBot="1">
+    <row r="172" spans="1:11" ht="31.5" thickBot="1">
       <c r="A172" s="4" t="s">
         <v>210</v>
       </c>
@@ -16592,7 +16579,7 @@
         <v>TS-UD-DOC-ENT-002test_012_multiple_amounts_extraction</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="31.2" thickBot="1">
+    <row r="173" spans="1:11" ht="31.5" thickBot="1">
       <c r="A173" s="4" t="s">
         <v>210</v>
       </c>
@@ -16621,7 +16608,7 @@
         <v>TS-UD-DOC-ENT-002test_013_money_percentage_extraction</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="31.2" thickBot="1">
+    <row r="174" spans="1:11" ht="31.5" thickBot="1">
       <c r="A174" s="4" t="s">
         <v>210</v>
       </c>
@@ -16650,7 +16637,7 @@
         <v>TS-UD-DOC-ENT-002test_014_money_negative_amount</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="16.2" thickBot="1">
+    <row r="175" spans="1:11" ht="16.5" thickBot="1">
       <c r="A175" s="4" t="s">
         <v>225</v>
       </c>
@@ -16671,7 +16658,7 @@
         <v>TS-UD-DOC-ENT-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="16.2" thickBot="1">
+    <row r="176" spans="1:11" ht="16.5" thickBot="1">
       <c r="A176" s="4" t="s">
         <v>226</v>
       </c>
@@ -16692,7 +16679,7 @@
         <v>TS-UD-DOC-ENT-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="16.2" thickBot="1">
+    <row r="177" spans="1:11" ht="16.5" thickBot="1">
       <c r="A177" s="4" t="s">
         <v>227</v>
       </c>
@@ -16713,7 +16700,7 @@
         <v>TS-UD-DOC-DOC-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="16.2" thickBot="1">
+    <row r="178" spans="1:11" ht="16.5" thickBot="1">
       <c r="A178" s="4" t="s">
         <v>228</v>
       </c>
@@ -16734,7 +16721,7 @@
         <v>TS-UD-DOC-CNF-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="16.2" thickBot="1">
+    <row r="179" spans="1:11" ht="31.5" thickBot="1">
       <c r="A179" s="4" t="s">
         <v>229</v>
       </c>
@@ -16755,7 +16742,7 @@
         <v>TS-UD-COH-CAT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="31.2" thickBot="1">
+    <row r="180" spans="1:11" ht="31.5" thickBot="1">
       <c r="A180" s="4" t="s">
         <v>231</v>
       </c>
@@ -16787,7 +16774,7 @@
         <v>TS-UD-COH-RUL-001test_001_r11_wbs_level4_no_activities_alert</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="31.2" thickBot="1">
+    <row r="181" spans="1:11" ht="31.5" thickBot="1">
       <c r="A181" s="4" t="s">
         <v>231</v>
       </c>
@@ -16816,7 +16803,7 @@
         <v>TS-UD-COH-RUL-001test_002_r11_wbs_level4_with_activities_pass</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="31.2" thickBot="1">
+    <row r="182" spans="1:11" ht="31.5" thickBot="1">
       <c r="A182" s="4" t="s">
         <v>231</v>
       </c>
@@ -16845,7 +16832,7 @@
         <v>TS-UD-COH-RUL-001test_003_r11_wbs_level3_no_activities_ignored</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="31.2" thickBot="1">
+    <row r="183" spans="1:11" ht="31.5" thickBot="1">
       <c r="A183" s="4" t="s">
         <v>231</v>
       </c>
@@ -16874,7 +16861,7 @@
         <v>TS-UD-COH-RUL-001test_004_r11_wbs_level2_no_activities_ignored</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="31.2" thickBot="1">
+    <row r="184" spans="1:11" ht="31.5" thickBot="1">
       <c r="A184" s="4" t="s">
         <v>231</v>
       </c>
@@ -16903,7 +16890,7 @@
         <v>TS-UD-COH-RUL-001test_005_r11_multiple_wbs_level4_violations</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="31.2" thickBot="1">
+    <row r="185" spans="1:11" ht="31.5" thickBot="1">
       <c r="A185" s="4" t="s">
         <v>231</v>
       </c>
@@ -16932,7 +16919,7 @@
         <v>TS-UD-COH-RUL-001test_006_r11_alert_severity_medium</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="31.2" thickBot="1">
+    <row r="186" spans="1:11" ht="31.5" thickBot="1">
       <c r="A186" s="4" t="s">
         <v>231</v>
       </c>
@@ -16961,7 +16948,7 @@
         <v>TS-UD-COH-RUL-001test_007_r12_wbs_no_budget_line_alert</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="31.2" thickBot="1">
+    <row r="187" spans="1:11" ht="31.5" thickBot="1">
       <c r="A187" s="4" t="s">
         <v>231</v>
       </c>
@@ -16990,7 +16977,7 @@
         <v>TS-UD-COH-RUL-001test_008_r12_wbs_with_budget_line_pass</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="31.2" thickBot="1">
+    <row r="188" spans="1:11" ht="31.5" thickBot="1">
       <c r="A188" s="4" t="s">
         <v>231</v>
       </c>
@@ -17019,7 +17006,7 @@
         <v>TS-UD-COH-RUL-001test_009_r12_wbs_budget_zero_warning</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="31.2" thickBot="1">
+    <row r="189" spans="1:11" ht="31.5" thickBot="1">
       <c r="A189" s="4" t="s">
         <v>231</v>
       </c>
@@ -17048,7 +17035,7 @@
         <v>TS-UD-COH-RUL-001test_010_r12_multiple_wbs_violations</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="31.2" thickBot="1">
+    <row r="190" spans="1:11" ht="31.5" thickBot="1">
       <c r="A190" s="4" t="s">
         <v>231</v>
       </c>
@@ -17077,7 +17064,7 @@
         <v>TS-UD-COH-RUL-001test_011_r12_alert_severity_high</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="31.2" thickBot="1">
+    <row r="191" spans="1:11" ht="31.5" thickBot="1">
       <c r="A191" s="4" t="s">
         <v>231</v>
       </c>
@@ -17106,7 +17093,7 @@
         <v>TS-UD-COH-RUL-001test_012_r12_affected_entities_list</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="31.2" thickBot="1">
+    <row r="192" spans="1:11" ht="31.5" thickBot="1">
       <c r="A192" s="4" t="s">
         <v>231</v>
       </c>
@@ -17135,7 +17122,7 @@
         <v>TS-UD-COH-RUL-001test_013_r13_scope_clause_no_wbs_alert</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="31.2" thickBot="1">
+    <row r="193" spans="1:11" ht="31.5" thickBot="1">
       <c r="A193" s="4" t="s">
         <v>231</v>
       </c>
@@ -17164,7 +17151,7 @@
         <v>TS-UD-COH-RUL-001test_014_r13_scope_clause_with_wbs_pass</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="31.2" thickBot="1">
+    <row r="194" spans="1:11" ht="31.5" thickBot="1">
       <c r="A194" s="4" t="s">
         <v>231</v>
       </c>
@@ -17193,7 +17180,7 @@
         <v>TS-UD-COH-RUL-001test_015_r13_partial_coverage_calculation</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="31.2" thickBot="1">
+    <row r="195" spans="1:11" ht="31.5" thickBot="1">
       <c r="A195" s="4" t="s">
         <v>231</v>
       </c>
@@ -17222,7 +17209,7 @@
         <v>TS-UD-COH-RUL-001test_016_r13_coverage_percentage_80</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="31.2" thickBot="1">
+    <row r="196" spans="1:11" ht="31.5" thickBot="1">
       <c r="A196" s="4" t="s">
         <v>231</v>
       </c>
@@ -17251,7 +17238,7 @@
         <v>TS-UD-COH-RUL-001test_017_r13_uncovered_clauses_list</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="31.2" thickBot="1">
+    <row r="197" spans="1:11" ht="31.5" thickBot="1">
       <c r="A197" s="4" t="s">
         <v>231</v>
       </c>
@@ -17280,7 +17267,7 @@
         <v>TS-UD-COH-RUL-001test_018_r13_alert_severity_high</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="31.2" thickBot="1">
+    <row r="198" spans="1:11" ht="31.5" thickBot="1">
       <c r="A198" s="4" t="s">
         <v>253</v>
       </c>
@@ -17309,7 +17296,7 @@
         <v>TS-UD-COH-RUL-002test_001_r6_deviation_10_percent_alert</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="31.2" thickBot="1">
+    <row r="199" spans="1:11" ht="31.5" thickBot="1">
       <c r="A199" s="4" t="s">
         <v>253</v>
       </c>
@@ -17338,7 +17325,7 @@
         <v>TS-UD-COH-RUL-002test_002_r6_deviation_5_percent_pass</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="31.2" thickBot="1">
+    <row r="200" spans="1:11" ht="31.5" thickBot="1">
       <c r="A200" s="4" t="s">
         <v>253</v>
       </c>
@@ -17367,7 +17354,7 @@
         <v>TS-UD-COH-RUL-002test_003_r6_deviation_4_9_percent_pass</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="31.2" thickBot="1">
+    <row r="201" spans="1:11" ht="31.5" thickBot="1">
       <c r="A201" s="4" t="s">
         <v>253</v>
       </c>
@@ -17396,7 +17383,7 @@
         <v>TS-UD-COH-RUL-002test_004_r6_over_budget_critical</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="31.2" thickBot="1">
+    <row r="202" spans="1:11" ht="31.5" thickBot="1">
       <c r="A202" s="4" t="s">
         <v>253</v>
       </c>
@@ -17425,7 +17412,7 @@
         <v>TS-UD-COH-RUL-002test_005_r6_under_budget_warning</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="31.2" thickBot="1">
+    <row r="203" spans="1:11" ht="31.5" thickBot="1">
       <c r="A203" s="4" t="s">
         <v>253</v>
       </c>
@@ -17454,7 +17441,7 @@
         <v>TS-UD-COH-RUL-002test_006_r6_exact_match_pass</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="31.2" thickBot="1">
+    <row r="204" spans="1:11" ht="31.5" thickBot="1">
       <c r="A204" s="4" t="s">
         <v>253</v>
       </c>
@@ -17483,7 +17470,7 @@
         <v>TS-UD-COH-RUL-002test_007_r15_bom_no_budget_alert</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="31.2" thickBot="1">
+    <row r="205" spans="1:11" ht="31.5" thickBot="1">
       <c r="A205" s="4" t="s">
         <v>253</v>
       </c>
@@ -17512,7 +17499,7 @@
         <v>TS-UD-COH-RUL-002test_008_r15_bom_with_budget_pass</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="31.2" thickBot="1">
+    <row r="206" spans="1:11" ht="31.5" thickBot="1">
       <c r="A206" s="4" t="s">
         <v>253</v>
       </c>
@@ -17541,7 +17528,7 @@
         <v>TS-UD-COH-RUL-002test_009_r15_bom_client_provided_exception</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="31.2" thickBot="1">
+    <row r="207" spans="1:11" ht="31.5" thickBot="1">
       <c r="A207" s="4" t="s">
         <v>253</v>
       </c>
@@ -17570,7 +17557,7 @@
         <v>TS-UD-COH-RUL-002test_010_r15_multiple_bom_violations</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="31.2" thickBot="1">
+    <row r="208" spans="1:11" ht="31.5" thickBot="1">
       <c r="A208" s="4" t="s">
         <v>253</v>
       </c>
@@ -17599,7 +17586,7 @@
         <v>TS-UD-COH-RUL-002test_011_r15_affected_items_list</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="31.2" thickBot="1">
+    <row r="209" spans="1:11" ht="31.5" thickBot="1">
       <c r="A209" s="4" t="s">
         <v>253</v>
       </c>
@@ -17628,7 +17615,7 @@
         <v>TS-UD-COH-RUL-002test_012_r16_deviation_11_percent_alert</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="31.2" thickBot="1">
+    <row r="210" spans="1:11" ht="31.5" thickBot="1">
       <c r="A210" s="4" t="s">
         <v>253</v>
       </c>
@@ -17657,7 +17644,7 @@
         <v>TS-UD-COH-RUL-002test_013_r16_deviation_10_percent_pass</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="31.2" thickBot="1">
+    <row r="211" spans="1:11" ht="31.5" thickBot="1">
       <c r="A211" s="4" t="s">
         <v>253</v>
       </c>
@@ -17686,7 +17673,7 @@
         <v>TS-UD-COH-RUL-002test_014_r16_over_budget_critical</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="31.2" thickBot="1">
+    <row r="212" spans="1:11" ht="31.5" thickBot="1">
       <c r="A212" s="4" t="s">
         <v>253</v>
       </c>
@@ -17715,7 +17702,7 @@
         <v>TS-UD-COH-RUL-002test_015_r16_under_budget_different_severity</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="31.2" thickBot="1">
+    <row r="213" spans="1:11" ht="31.5" thickBot="1">
       <c r="A213" s="4" t="s">
         <v>253</v>
       </c>
@@ -17744,7 +17731,7 @@
         <v>TS-UD-COH-RUL-002test_016_r16_trend_calculation</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="31.2" thickBot="1">
+    <row r="214" spans="1:11" ht="31.5" thickBot="1">
       <c r="A214" s="4" t="s">
         <v>270</v>
       </c>
@@ -17776,7 +17763,7 @@
         <v>TS-UD-COH-RUL-003test_001_r1_dates_mismatch_alert</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="31.2" thickBot="1">
+    <row r="215" spans="1:11" ht="31.5" thickBot="1">
       <c r="A215" s="4" t="s">
         <v>270</v>
       </c>
@@ -17805,7 +17792,7 @@
         <v>TS-UD-COH-RUL-003test_002_r1_dates_match_pass</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="31.2" thickBot="1">
+    <row r="216" spans="1:11" ht="31.5" thickBot="1">
       <c r="A216" s="4" t="s">
         <v>270</v>
       </c>
@@ -17834,7 +17821,7 @@
         <v>TS-UD-COH-RUL-003test_003_r1_schedule_late_critical</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="31.2" thickBot="1">
+    <row r="217" spans="1:11" ht="31.5" thickBot="1">
       <c r="A217" s="4" t="s">
         <v>270</v>
       </c>
@@ -17863,7 +17850,7 @@
         <v>TS-UD-COH-RUL-003test_004_r1_schedule_early_warning</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="31.2" thickBot="1">
+    <row r="218" spans="1:11" ht="31.5" thickBot="1">
       <c r="A218" s="4" t="s">
         <v>270</v>
       </c>
@@ -17892,7 +17879,7 @@
         <v>TS-UD-COH-RUL-003test_005_r1_delta_days_calculation</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="31.2" thickBot="1">
+    <row r="219" spans="1:11" ht="31.5" thickBot="1">
       <c r="A219" s="4" t="s">
         <v>270</v>
       </c>
@@ -17921,7 +17908,7 @@
         <v>TS-UD-COH-RUL-003test_006_r2_milestone_no_activity_alert</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="31.2" thickBot="1">
+    <row r="220" spans="1:11" ht="31.5" thickBot="1">
       <c r="A220" s="4" t="s">
         <v>270</v>
       </c>
@@ -17950,7 +17937,7 @@
         <v>TS-UD-COH-RUL-003test_007_r2_milestone_with_activity_pass</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="31.2" thickBot="1">
+    <row r="221" spans="1:11" ht="31.5" thickBot="1">
       <c r="A221" s="4" t="s">
         <v>270</v>
       </c>
@@ -17979,7 +17966,7 @@
         <v>TS-UD-COH-RUL-003test_008_r2_milestone_date_mismatch_alert</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="31.2" thickBot="1">
+    <row r="222" spans="1:11" ht="31.5" thickBot="1">
       <c r="A222" s="4" t="s">
         <v>270</v>
       </c>
@@ -18008,7 +17995,7 @@
         <v>TS-UD-COH-RUL-003test_009_r2_multiple_milestones_violations</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="31.2" thickBot="1">
+    <row r="223" spans="1:11" ht="31.5" thickBot="1">
       <c r="A223" s="4" t="s">
         <v>270</v>
       </c>
@@ -18037,7 +18024,7 @@
         <v>TS-UD-COH-RUL-003test_010_r2_unlinked_milestones_list</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="31.2" thickBot="1">
+    <row r="224" spans="1:11" ht="31.5" thickBot="1">
       <c r="A224" s="4" t="s">
         <v>270</v>
       </c>
@@ -18066,7 +18053,7 @@
         <v>TS-UD-COH-RUL-003test_011_r5_activity_exceeds_contract_alert</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="31.2" thickBot="1">
+    <row r="225" spans="1:11" ht="31.5" thickBot="1">
       <c r="A225" s="4" t="s">
         <v>270</v>
       </c>
@@ -18095,7 +18082,7 @@
         <v>TS-UD-COH-RUL-003test_012_r5_activity_within_contract_pass</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="31.2" thickBot="1">
+    <row r="226" spans="1:11" ht="31.5" thickBot="1">
       <c r="A226" s="4" t="s">
         <v>270</v>
       </c>
@@ -18124,7 +18111,7 @@
         <v>TS-UD-COH-RUL-003test_013_r5_exceeding_activities_list</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="31.2" thickBot="1">
+    <row r="227" spans="1:11" ht="31.5" thickBot="1">
       <c r="A227" s="4" t="s">
         <v>270</v>
       </c>
@@ -18153,7 +18140,7 @@
         <v>TS-UD-COH-RUL-003test_014_r5_alert_severity_critical</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="31.2" thickBot="1">
+    <row r="228" spans="1:11" ht="31.5" thickBot="1">
       <c r="A228" s="4" t="s">
         <v>270</v>
       </c>
@@ -18182,7 +18169,7 @@
         <v>TS-UD-COH-RUL-003test_015_r14_order_date_passed_critical</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="31.2" thickBot="1">
+    <row r="229" spans="1:11" ht="31.5" thickBot="1">
       <c r="A229" s="4" t="s">
         <v>270</v>
       </c>
@@ -18211,7 +18198,7 @@
         <v>TS-UD-COH-RUL-003test_016_r14_order_date_tight_warning</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="16.2" thickBot="1">
+    <row r="230" spans="1:11" ht="31.5" thickBot="1">
       <c r="A230" s="4" t="s">
         <v>288</v>
       </c>
@@ -18232,7 +18219,7 @@
         <v>TS-UD-COH-RUL-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="16.2" thickBot="1">
+    <row r="231" spans="1:11" ht="31.5" thickBot="1">
       <c r="A231" s="4" t="s">
         <v>289</v>
       </c>
@@ -18253,7 +18240,7 @@
         <v>TS-UD-COH-RUL-005Tests not individually listed</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="16.2" thickBot="1">
+    <row r="232" spans="1:11" ht="31.5" thickBot="1">
       <c r="A232" s="4" t="s">
         <v>290</v>
       </c>
@@ -18274,7 +18261,7 @@
         <v>TS-UD-COH-RUL-006Tests not individually listed</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="31.2" thickBot="1">
+    <row r="233" spans="1:11" ht="31.5" thickBot="1">
       <c r="A233" s="4" t="s">
         <v>291</v>
       </c>
@@ -18306,7 +18293,7 @@
         <v>TS-UD-COH-SCR-001test_001_subscore_no_alerts_100_percent</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="31.2" thickBot="1">
+    <row r="234" spans="1:11" ht="31.5" thickBot="1">
       <c r="A234" s="4" t="s">
         <v>291</v>
       </c>
@@ -18335,7 +18322,7 @@
         <v>TS-UD-COH-SCR-001test_002_subscore_one_alert_penalized</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="31.2" thickBot="1">
+    <row r="235" spans="1:11" ht="31.5" thickBot="1">
       <c r="A235" s="4" t="s">
         <v>291</v>
       </c>
@@ -18364,7 +18351,7 @@
         <v>TS-UD-COH-SCR-001test_003_subscore_multiple_alerts_cumulative</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="31.2" thickBot="1">
+    <row r="236" spans="1:11" ht="31.5" thickBot="1">
       <c r="A236" s="4" t="s">
         <v>291</v>
       </c>
@@ -18393,7 +18380,7 @@
         <v>TS-UD-COH-SCR-001test_004_subscore_severity_low_penalty_5</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="31.2" thickBot="1">
+    <row r="237" spans="1:11" ht="31.5" thickBot="1">
       <c r="A237" s="4" t="s">
         <v>291</v>
       </c>
@@ -18422,7 +18409,7 @@
         <v>TS-UD-COH-SCR-001test_005_subscore_severity_medium_penalty_10</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="31.2" thickBot="1">
+    <row r="238" spans="1:11" ht="31.5" thickBot="1">
       <c r="A238" s="4" t="s">
         <v>291</v>
       </c>
@@ -18451,7 +18438,7 @@
         <v>TS-UD-COH-SCR-001test_006_subscore_severity_high_penalty_20</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="31.2" thickBot="1">
+    <row r="239" spans="1:11" ht="31.5" thickBot="1">
       <c r="A239" s="4" t="s">
         <v>291</v>
       </c>
@@ -18480,7 +18467,7 @@
         <v>TS-UD-COH-SCR-001test_007_subscore_severity_critical_penalty_30</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="31.2" thickBot="1">
+    <row r="240" spans="1:11" ht="31.5" thickBot="1">
       <c r="A240" s="4" t="s">
         <v>291</v>
       </c>
@@ -18509,7 +18496,7 @@
         <v>TS-UD-COH-SCR-001test_008_subscore_scope_calculation</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="31.2" thickBot="1">
+    <row r="241" spans="1:11" ht="31.5" thickBot="1">
       <c r="A241" s="4" t="s">
         <v>291</v>
       </c>
@@ -18538,7 +18525,7 @@
         <v>TS-UD-COH-SCR-001test_009_subscore_budget_calculation</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="31.2" thickBot="1">
+    <row r="242" spans="1:11" ht="31.5" thickBot="1">
       <c r="A242" s="4" t="s">
         <v>291</v>
       </c>
@@ -18567,7 +18554,7 @@
         <v>TS-UD-COH-SCR-001test_010_subscore_quality_calculation</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="31.2" thickBot="1">
+    <row r="243" spans="1:11" ht="31.5" thickBot="1">
       <c r="A243" s="4" t="s">
         <v>291</v>
       </c>
@@ -18596,7 +18583,7 @@
         <v>TS-UD-COH-SCR-001test_011_subscore_technical_calculation</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="31.2" thickBot="1">
+    <row r="244" spans="1:11" ht="31.5" thickBot="1">
       <c r="A244" s="4" t="s">
         <v>291</v>
       </c>
@@ -18625,7 +18612,7 @@
         <v>TS-UD-COH-SCR-001test_012_subscore_legal_calculation</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="31.2" thickBot="1">
+    <row r="245" spans="1:11" ht="31.5" thickBot="1">
       <c r="A245" s="4" t="s">
         <v>291</v>
       </c>
@@ -18654,7 +18641,7 @@
         <v>TS-UD-COH-SCR-001test_013_subscore_time_calculation</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="31.2" thickBot="1">
+    <row r="246" spans="1:11" ht="31.5" thickBot="1">
       <c r="A246" s="4" t="s">
         <v>291</v>
       </c>
@@ -18683,7 +18670,7 @@
         <v>TS-UD-COH-SCR-001test_014_subscore_floor_at_zero</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="31.2" thickBot="1">
+    <row r="247" spans="1:11" ht="31.5" thickBot="1">
       <c r="A247" s="4" t="s">
         <v>307</v>
       </c>
@@ -18712,7 +18699,7 @@
         <v>TS-UD-COH-SCR-002test_001_global_score_formula_verification</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="31.2" thickBot="1">
+    <row r="248" spans="1:11" ht="31.5" thickBot="1">
       <c r="A248" s="4" t="s">
         <v>307</v>
       </c>
@@ -18741,7 +18728,7 @@
         <v>TS-UD-COH-SCR-002test_002_global_score_default_weights</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="31.2" thickBot="1">
+    <row r="249" spans="1:11" ht="31.5" thickBot="1">
       <c r="A249" s="4" t="s">
         <v>307</v>
       </c>
@@ -18770,7 +18757,7 @@
         <v>TS-UD-COH-SCR-002test_003_global_score_all_100_equals_100</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="31.2" thickBot="1">
+    <row r="250" spans="1:11" ht="31.5" thickBot="1">
       <c r="A250" s="4" t="s">
         <v>307</v>
       </c>
@@ -18799,7 +18786,7 @@
         <v>TS-UD-COH-SCR-002test_004_global_score_all_0_equals_0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="31.2" thickBot="1">
+    <row r="251" spans="1:11" ht="31.5" thickBot="1">
       <c r="A251" s="4" t="s">
         <v>307</v>
       </c>
@@ -18828,7 +18815,7 @@
         <v>TS-UD-COH-SCR-002test_005_global_score_mixed_subscores</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="31.2" thickBot="1">
+    <row r="252" spans="1:11" ht="31.5" thickBot="1">
       <c r="A252" s="4" t="s">
         <v>307</v>
       </c>
@@ -18857,7 +18844,7 @@
         <v>TS-UD-COH-SCR-002test_006_global_score_range_0_to_100</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="31.2" thickBot="1">
+    <row r="253" spans="1:11" ht="31.5" thickBot="1">
       <c r="A253" s="4" t="s">
         <v>307</v>
       </c>
@@ -18886,7 +18873,7 @@
         <v>TS-UD-COH-SCR-002test_007_weights_sum_validation</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="31.2" thickBot="1">
+    <row r="254" spans="1:11" ht="31.5" thickBot="1">
       <c r="A254" s="4" t="s">
         <v>307</v>
       </c>
@@ -18915,7 +18902,7 @@
         <v>TS-UD-COH-SCR-002test_008_weights_normalization_auto</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="31.2" thickBot="1">
+    <row r="255" spans="1:11" ht="31.5" thickBot="1">
       <c r="A255" s="4" t="s">
         <v>307</v>
       </c>
@@ -18944,7 +18931,7 @@
         <v>TS-UD-COH-SCR-002test_009_weights_custom_budget_30</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="31.2" thickBot="1">
+    <row r="256" spans="1:11" ht="31.5" thickBot="1">
       <c r="A256" s="4" t="s">
         <v>307</v>
       </c>
@@ -18973,7 +18960,7 @@
         <v>TS-UD-COH-SCR-002test_010_weights_custom_time_25</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="31.2" thickBot="1">
+    <row r="257" spans="1:11" ht="31.5" thickBot="1">
       <c r="A257" s="4" t="s">
         <v>307</v>
       </c>
@@ -19002,7 +18989,7 @@
         <v>TS-UD-COH-SCR-002test_011_weights_per_project_type</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="31.2" thickBot="1">
+    <row r="258" spans="1:11" ht="31.5" thickBot="1">
       <c r="A258" s="4" t="s">
         <v>307</v>
       </c>
@@ -19031,7 +19018,7 @@
         <v>TS-UD-COH-SCR-002test_012_weights_history_tracking</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="16.2" thickBot="1">
+    <row r="259" spans="1:11" ht="31.5" thickBot="1">
       <c r="A259" s="4" t="s">
         <v>321</v>
       </c>
@@ -19048,7 +19035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="31.2" thickBot="1">
+    <row r="260" spans="1:11" ht="31.5" thickBot="1">
       <c r="A260" s="4" t="s">
         <v>322</v>
       </c>
@@ -19077,7 +19064,7 @@
         <v>TS-UD-COH-GAM-001test_001_detect_mass_changes_15_in_30min</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="31.2" thickBot="1">
+    <row r="261" spans="1:11" ht="31.5" thickBot="1">
       <c r="A261" s="4" t="s">
         <v>322</v>
       </c>
@@ -19106,7 +19093,7 @@
         <v>TS-UD-COH-GAM-001test_002_no_violation_10_in_60min</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="31.2" thickBot="1">
+    <row r="262" spans="1:11" ht="31.5" thickBot="1">
       <c r="A262" s="4" t="s">
         <v>322</v>
       </c>
@@ -19135,7 +19122,7 @@
         <v>TS-UD-COH-GAM-001test_003_mass_changes_window_sliding</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="31.2" thickBot="1">
+    <row r="263" spans="1:11" ht="31.5" thickBot="1">
       <c r="A263" s="4" t="s">
         <v>322</v>
       </c>
@@ -19164,7 +19151,7 @@
         <v>TS-UD-COH-GAM-001test_004_mass_changes_flag_for_review</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="31.2" thickBot="1">
+    <row r="264" spans="1:11" ht="31.5" thickBot="1">
       <c r="A264" s="4" t="s">
         <v>322</v>
       </c>
@@ -19193,7 +19180,7 @@
         <v>TS-UD-COH-GAM-001test_005_detect_resolve_reintroduce_4_times</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="31.2" thickBot="1">
+    <row r="265" spans="1:11" ht="31.5" thickBot="1">
       <c r="A265" s="4" t="s">
         <v>322</v>
       </c>
@@ -19222,7 +19209,7 @@
         <v>TS-UD-COH-GAM-001test_006_no_violation_2_times</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="31.2" thickBot="1">
+    <row r="266" spans="1:11" ht="31.5" thickBot="1">
       <c r="A266" s="4" t="s">
         <v>322</v>
       </c>
@@ -19251,7 +19238,7 @@
         <v>TS-UD-COH-GAM-001test_007_hash_comparison_same_content</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="31.2" thickBot="1">
+    <row r="267" spans="1:11" ht="31.5" thickBot="1">
       <c r="A267" s="4" t="s">
         <v>322</v>
       </c>
@@ -19280,7 +19267,7 @@
         <v>TS-UD-COH-GAM-001test_008_penalty_minus_5_points</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="31.2" thickBot="1">
+    <row r="268" spans="1:11" ht="31.5" thickBot="1">
       <c r="A268" s="4" t="s">
         <v>322</v>
       </c>
@@ -19309,7 +19296,7 @@
         <v>TS-UD-COH-GAM-001test_009_detect_95_percent_3_docs</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="31.2" thickBot="1">
+    <row r="269" spans="1:11" ht="31.5" thickBot="1">
       <c r="A269" s="4" t="s">
         <v>322</v>
       </c>
@@ -19338,7 +19325,7 @@
         <v>TS-UD-COH-GAM-001test_010_no_violation_95_percent_50_docs</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="31.2" thickBot="1">
+    <row r="270" spans="1:11" ht="31.5" thickBot="1">
       <c r="A270" s="4" t="s">
         <v>322</v>
       </c>
@@ -19367,7 +19354,7 @@
         <v>TS-UD-COH-GAM-001test_011_threshold_90_percent_5_docs</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="31.2" thickBot="1">
+    <row r="271" spans="1:11" ht="31.5" thickBot="1">
       <c r="A271" s="4" t="s">
         <v>322</v>
       </c>
@@ -19396,7 +19383,7 @@
         <v>TS-UD-COH-GAM-001test_012_require_audit_action</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="31.2" thickBot="1">
+    <row r="272" spans="1:11" ht="31.5" thickBot="1">
       <c r="A272" s="4" t="s">
         <v>322</v>
       </c>
@@ -19425,7 +19412,7 @@
         <v>TS-UD-COH-GAM-001test_013_detect_weight_change_25_percent</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="31.2" thickBot="1">
+    <row r="273" spans="1:11" ht="31.5" thickBot="1">
       <c r="A273" s="4" t="s">
         <v>322</v>
       </c>
@@ -19454,7 +19441,7 @@
         <v>TS-UD-COH-GAM-001test_014_no_violation_change_15_percent</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="31.2" thickBot="1">
+    <row r="274" spans="1:11" ht="31.5" thickBot="1">
       <c r="A274" s="4" t="s">
         <v>322</v>
       </c>
@@ -19483,7 +19470,7 @@
         <v>TS-UD-COH-GAM-001test_015_24h_window_tracking</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="31.2" thickBot="1">
+    <row r="275" spans="1:11" ht="31.5" thickBot="1">
       <c r="A275" s="4" t="s">
         <v>322</v>
       </c>
@@ -19512,7 +19499,7 @@
         <v>TS-UD-COH-GAM-001test_016_notify_admin_action</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="16.2" thickBot="1">
+    <row r="276" spans="1:11" ht="31.5" thickBot="1">
       <c r="A276" s="4" t="s">
         <v>340</v>
       </c>
@@ -19533,7 +19520,7 @@
         <v>TS-UD-COH-ALR-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="31.2" thickBot="1">
+    <row r="277" spans="1:11" ht="31.5" thickBot="1">
       <c r="A277" s="4" t="s">
         <v>341</v>
       </c>
@@ -19565,7 +19552,7 @@
         <v>TS-UD-PRJ-WBS-001test_001_wbs_item_creation_all_fields</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="31.2" thickBot="1">
+    <row r="278" spans="1:11" ht="31.5" thickBot="1">
       <c r="A278" s="4" t="s">
         <v>341</v>
       </c>
@@ -19594,7 +19581,7 @@
         <v>TS-UD-PRJ-WBS-001test_002_wbs_item_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="31.2" thickBot="1">
+    <row r="279" spans="1:11" ht="31.5" thickBot="1">
       <c r="A279" s="4" t="s">
         <v>341</v>
       </c>
@@ -19623,7 +19610,7 @@
         <v>TS-UD-PRJ-WBS-001test_003_wbs_item_fails_without_code</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="31.2" thickBot="1">
+    <row r="280" spans="1:11" ht="31.5" thickBot="1">
       <c r="A280" s="4" t="s">
         <v>341</v>
       </c>
@@ -19652,7 +19639,7 @@
         <v>TS-UD-PRJ-WBS-001test_004_wbs_item_fails_without_name</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="31.2" thickBot="1">
+    <row r="281" spans="1:11" ht="31.5" thickBot="1">
       <c r="A281" s="4" t="s">
         <v>341</v>
       </c>
@@ -19681,7 +19668,7 @@
         <v>TS-UD-PRJ-WBS-001test_005_wbs_item_fails_invalid_level</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="31.2" thickBot="1">
+    <row r="282" spans="1:11" ht="31.5" thickBot="1">
       <c r="A282" s="4" t="s">
         <v>341</v>
       </c>
@@ -19710,7 +19697,7 @@
         <v>TS-UD-PRJ-WBS-001test_006_wbs_item_immutability</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="31.2" thickBot="1">
+    <row r="283" spans="1:11" ht="31.5" thickBot="1">
       <c r="A283" s="4" t="s">
         <v>341</v>
       </c>
@@ -19739,7 +19726,7 @@
         <v>TS-UD-PRJ-WBS-001test_007_wbs_code_format_1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="31.2" thickBot="1">
+    <row r="284" spans="1:11" ht="31.5" thickBot="1">
       <c r="A284" s="4" t="s">
         <v>341</v>
       </c>
@@ -19768,7 +19755,7 @@
         <v>TS-UD-PRJ-WBS-001test_008_wbs_code_format_1_1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="31.2" thickBot="1">
+    <row r="285" spans="1:11" ht="31.5" thickBot="1">
       <c r="A285" s="4" t="s">
         <v>341</v>
       </c>
@@ -19797,7 +19784,7 @@
         <v>TS-UD-PRJ-WBS-001test_009_wbs_code_format_1_1_1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="31.2" thickBot="1">
+    <row r="286" spans="1:11" ht="31.5" thickBot="1">
       <c r="A286" s="4" t="s">
         <v>341</v>
       </c>
@@ -19826,7 +19813,7 @@
         <v>TS-UD-PRJ-WBS-001test_010_wbs_code_format_1_1_1_1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="31.2" thickBot="1">
+    <row r="287" spans="1:11" ht="31.5" thickBot="1">
       <c r="A287" s="4" t="s">
         <v>341</v>
       </c>
@@ -19855,7 +19842,7 @@
         <v>TS-UD-PRJ-WBS-001test_011_wbs_code_invalid_format_rejected</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="31.2" thickBot="1">
+    <row r="288" spans="1:11" ht="31.5" thickBot="1">
       <c r="A288" s="4" t="s">
         <v>341</v>
       </c>
@@ -19884,7 +19871,7 @@
         <v>TS-UD-PRJ-WBS-001test_012_wbs_code_uniqueness_per_project</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="16.2" thickBot="1">
+    <row r="289" spans="1:11" ht="31.5" thickBot="1">
       <c r="A289" s="4" t="s">
         <v>341</v>
       </c>
@@ -19913,7 +19900,7 @@
         <v>TS-UD-PRJ-WBS-001test_013_wbs_level_1_valid</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="16.2" thickBot="1">
+    <row r="290" spans="1:11" ht="31.5" thickBot="1">
       <c r="A290" s="4" t="s">
         <v>341</v>
       </c>
@@ -19942,7 +19929,7 @@
         <v>TS-UD-PRJ-WBS-001test_014_wbs_level_4_valid</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="31.2" thickBot="1">
+    <row r="291" spans="1:11" ht="31.5" thickBot="1">
       <c r="A291" s="4" t="s">
         <v>341</v>
       </c>
@@ -19971,7 +19958,7 @@
         <v>TS-UD-PRJ-WBS-001test_015_wbs_level_0_invalid</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="31.2" thickBot="1">
+    <row r="292" spans="1:11" ht="31.5" thickBot="1">
       <c r="A292" s="4" t="s">
         <v>341</v>
       </c>
@@ -20000,7 +19987,7 @@
         <v>TS-UD-PRJ-WBS-001test_016_wbs_level_5_invalid</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="31.2" thickBot="1">
+    <row r="293" spans="1:11" ht="31.5" thickBot="1">
       <c r="A293" s="4" t="s">
         <v>341</v>
       </c>
@@ -20029,7 +20016,7 @@
         <v>TS-UD-PRJ-WBS-001test_017_wbs_level_matches_code_depth</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="31.2" thickBot="1">
+    <row r="294" spans="1:11" ht="31.5" thickBot="1">
       <c r="A294" s="4" t="s">
         <v>341</v>
       </c>
@@ -20058,7 +20045,7 @@
         <v>TS-UD-PRJ-WBS-001test_018_wbs_level_parent_child_validation</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="16.2" thickBot="1">
+    <row r="295" spans="1:11" ht="31.5" thickBot="1">
       <c r="A295" s="4" t="s">
         <v>363</v>
       </c>
@@ -20079,7 +20066,7 @@
         <v>TS-UD-PRJ-WBS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="16.2" thickBot="1">
+    <row r="296" spans="1:11" ht="31.5" thickBot="1">
       <c r="A296" s="4" t="s">
         <v>364</v>
       </c>
@@ -20100,7 +20087,7 @@
         <v>TS-UD-PRJ-WBS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="16.2" thickBot="1">
+    <row r="297" spans="1:11" ht="31.5" thickBot="1">
       <c r="A297" s="4" t="s">
         <v>365</v>
       </c>
@@ -20121,7 +20108,7 @@
         <v>TS-UD-PRJ-WBS-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="16.2" thickBot="1">
+    <row r="298" spans="1:11" ht="31.5" thickBot="1">
       <c r="A298" s="4" t="s">
         <v>366</v>
       </c>
@@ -20142,7 +20129,7 @@
         <v>TS-UD-PRJ-PRJ-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="16.2" thickBot="1">
+    <row r="299" spans="1:11" ht="31.5" thickBot="1">
       <c r="A299" s="4" t="s">
         <v>367</v>
       </c>
@@ -20163,7 +20150,7 @@
         <v>TS-UD-PRJ-DTO-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="16.2" thickBot="1">
+    <row r="300" spans="1:11" ht="46.5" thickBot="1">
       <c r="A300" s="4" t="s">
         <v>368</v>
       </c>
@@ -20184,7 +20171,7 @@
         <v>TS-UD-PROC-BOM-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="16.2" thickBot="1">
+    <row r="301" spans="1:11" ht="46.5" thickBot="1">
       <c r="A301" s="4" t="s">
         <v>370</v>
       </c>
@@ -20205,7 +20192,7 @@
         <v>TS-UD-PROC-BOM-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="31.2" thickBot="1">
+    <row r="302" spans="1:11" ht="46.5" thickBot="1">
       <c r="A302" s="4" t="s">
         <v>371</v>
       </c>
@@ -20237,7 +20224,7 @@
         <v>TS-UD-PROC-LTM-001test_001_optimal_date_production_only</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="31.2" thickBot="1">
+    <row r="303" spans="1:11" ht="46.5" thickBot="1">
       <c r="A303" s="4" t="s">
         <v>371</v>
       </c>
@@ -20266,7 +20253,7 @@
         <v>TS-UD-PROC-LTM-001test_002_optimal_date_production_transit</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="31.2" thickBot="1">
+    <row r="304" spans="1:11" ht="46.5" thickBot="1">
       <c r="A304" s="4" t="s">
         <v>371</v>
       </c>
@@ -20295,7 +20282,7 @@
         <v>TS-UD-PROC-LTM-001test_003_optimal_date_production_transit_buffer</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="31.2" thickBot="1">
+    <row r="305" spans="1:11" ht="46.5" thickBot="1">
       <c r="A305" s="4" t="s">
         <v>371</v>
       </c>
@@ -20324,7 +20311,7 @@
         <v>TS-UD-PROC-LTM-001test_004_optimal_date_all_components</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="31.2" thickBot="1">
+    <row r="306" spans="1:11" ht="46.5" thickBot="1">
       <c r="A306" s="4" t="s">
         <v>371</v>
       </c>
@@ -20353,7 +20340,7 @@
         <v>TS-UD-PROC-LTM-001test_005_lead_time_breakdown_returned</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="31.2" thickBot="1">
+    <row r="307" spans="1:11" ht="46.5" thickBot="1">
       <c r="A307" s="4" t="s">
         <v>371</v>
       </c>
@@ -20382,7 +20369,7 @@
         <v>TS-UD-PROC-LTM-001test_006_required_on_site_calculation</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="31.2" thickBot="1">
+    <row r="308" spans="1:11" ht="46.5" thickBot="1">
       <c r="A308" s="4" t="s">
         <v>371</v>
       </c>
@@ -20411,7 +20398,7 @@
         <v>TS-UD-PROC-LTM-001test_007_business_days_calculation</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="31.2" thickBot="1">
+    <row r="309" spans="1:11" ht="46.5" thickBot="1">
       <c r="A309" s="4" t="s">
         <v>371</v>
       </c>
@@ -20440,7 +20427,7 @@
         <v>TS-UD-PROC-LTM-001test_008_weekend_exclusion</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="16.2" thickBot="1">
+    <row r="310" spans="1:11" ht="46.5" thickBot="1">
       <c r="A310" s="4" t="s">
         <v>371</v>
       </c>
@@ -20469,7 +20456,7 @@
         <v>TS-UD-PROC-LTM-001test_009_holiday_exclusion</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="31.2" thickBot="1">
+    <row r="311" spans="1:11" ht="46.5" thickBot="1">
       <c r="A311" s="4" t="s">
         <v>371</v>
       </c>
@@ -20498,7 +20485,7 @@
         <v>TS-UD-PROC-LTM-001test_010_delivery_on_weekend_adjusted</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="31.2" thickBot="1">
+    <row r="312" spans="1:11" ht="46.5" thickBot="1">
       <c r="A312" s="4" t="s">
         <v>371</v>
       </c>
@@ -20527,7 +20514,7 @@
         <v>TS-UD-PROC-LTM-001test_011_mixed_calendar_business_days</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="31.2" thickBot="1">
+    <row r="313" spans="1:11" ht="46.5" thickBot="1">
       <c r="A313" s="4" t="s">
         <v>371</v>
       </c>
@@ -20556,7 +20543,7 @@
         <v>TS-UD-PROC-LTM-001test_012_alert_r14_date_passed</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="31.2" thickBot="1">
+    <row r="314" spans="1:11" ht="46.5" thickBot="1">
       <c r="A314" s="4" t="s">
         <v>371</v>
       </c>
@@ -20585,7 +20572,7 @@
         <v>TS-UD-PROC-LTM-001test_013_alert_r14_tight_margin_3_days</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="31.2" thickBot="1">
+    <row r="315" spans="1:11" ht="46.5" thickBot="1">
       <c r="A315" s="4" t="s">
         <v>371</v>
       </c>
@@ -20614,7 +20601,7 @@
         <v>TS-UD-PROC-LTM-001test_014_alert_severity_critical_passed</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="31.2" thickBot="1">
+    <row r="316" spans="1:11" ht="46.5" thickBot="1">
       <c r="A316" s="4" t="s">
         <v>371</v>
       </c>
@@ -20643,7 +20630,7 @@
         <v>TS-UD-PROC-LTM-001test_015_alert_severity_warning_tight</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="31.2" thickBot="1">
+    <row r="317" spans="1:11" ht="46.5" thickBot="1">
       <c r="A317" s="4" t="s">
         <v>371</v>
       </c>
@@ -20672,7 +20659,7 @@
         <v>TS-UD-PROC-LTM-001test_016_no_alert_sufficient_margin</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="31.2" thickBot="1">
+    <row r="318" spans="1:11" ht="46.5" thickBot="1">
       <c r="A318" s="4" t="s">
         <v>390</v>
       </c>
@@ -20698,7 +20685,7 @@
         <v>TS-UD-PROC-LTM-002test_001_exw_buyer_full_responsibility</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="31.2" thickBot="1">
+    <row r="319" spans="1:11" ht="46.5" thickBot="1">
       <c r="A319" s="4" t="s">
         <v>390</v>
       </c>
@@ -20724,7 +20711,7 @@
         <v>TS-UD-PROC-LTM-002test_002_exw_transit_time_included</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="31.2" thickBot="1">
+    <row r="320" spans="1:11" ht="46.5" thickBot="1">
       <c r="A320" s="4" t="s">
         <v>390</v>
       </c>
@@ -20750,7 +20737,7 @@
         <v>TS-UD-PROC-LTM-002test_003_exw_customs_included</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="31.2" thickBot="1">
+    <row r="321" spans="1:11" ht="46.5" thickBot="1">
       <c r="A321" s="4" t="s">
         <v>390</v>
       </c>
@@ -20776,7 +20763,7 @@
         <v>TS-UD-PROC-LTM-002test_004_fob_shared_responsibility</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="31.2" thickBot="1">
+    <row r="322" spans="1:11" ht="46.5" thickBot="1">
       <c r="A322" s="4" t="s">
         <v>390</v>
       </c>
@@ -20802,7 +20789,7 @@
         <v>TS-UD-PROC-LTM-002test_005_fob_port_handover</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="31.2" thickBot="1">
+    <row r="323" spans="1:11" ht="46.5" thickBot="1">
       <c r="A323" s="4" t="s">
         <v>390</v>
       </c>
@@ -20828,7 +20815,7 @@
         <v>TS-UD-PROC-LTM-002test_006_fob_insurance_buyer</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="31.2" thickBot="1">
+    <row r="324" spans="1:11" ht="46.5" thickBot="1">
       <c r="A324" s="4" t="s">
         <v>390</v>
       </c>
@@ -20854,7 +20841,7 @@
         <v>TS-UD-PROC-LTM-002test_007_cif_seller_insurance</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="16.2" thickBot="1">
+    <row r="325" spans="1:11" ht="46.5" thickBot="1">
       <c r="A325" s="4" t="s">
         <v>390</v>
       </c>
@@ -20880,7 +20867,7 @@
         <v>TS-UD-PROC-LTM-002test_008_cif_port_to_port</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="31.2" thickBot="1">
+    <row r="326" spans="1:11" ht="46.5" thickBot="1">
       <c r="A326" s="4" t="s">
         <v>390</v>
       </c>
@@ -20906,7 +20893,7 @@
         <v>TS-UD-PROC-LTM-002test_009_cif_customs_buyer</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="31.2" thickBot="1">
+    <row r="327" spans="1:11" ht="46.5" thickBot="1">
       <c r="A327" s="4" t="s">
         <v>390</v>
       </c>
@@ -20932,7 +20919,7 @@
         <v>TS-UD-PROC-LTM-002test_010_ddp_seller_full_responsibility</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="31.2" thickBot="1">
+    <row r="328" spans="1:11" ht="46.5" thickBot="1">
       <c r="A328" s="4" t="s">
         <v>390</v>
       </c>
@@ -20958,7 +20945,7 @@
         <v>TS-UD-PROC-LTM-002test_011_ddp_no_customs_buyer</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="31.2" thickBot="1">
+    <row r="329" spans="1:11" ht="46.5" thickBot="1">
       <c r="A329" s="4" t="s">
         <v>390</v>
       </c>
@@ -20984,7 +20971,7 @@
         <v>TS-UD-PROC-LTM-002test_012_ddp_door_to_door</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="31.2" thickBot="1">
+    <row r="330" spans="1:11" ht="46.5" thickBot="1">
       <c r="A330" s="4" t="s">
         <v>390</v>
       </c>
@@ -21010,7 +20997,7 @@
         <v>TS-UD-PROC-LTM-002test_013_incoterm_comparison_same_route</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="31.2" thickBot="1">
+    <row r="331" spans="1:11" ht="46.5" thickBot="1">
       <c r="A331" s="4" t="s">
         <v>390</v>
       </c>
@@ -21036,7 +21023,7 @@
         <v>TS-UD-PROC-LTM-002test_014_incoterm_impact_on_lead_time</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="16.2" thickBot="1">
+    <row r="332" spans="1:11" ht="46.5" thickBot="1">
       <c r="A332" s="4" t="s">
         <v>406</v>
       </c>
@@ -21053,7 +21040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="16.2" thickBot="1">
+    <row r="333" spans="1:11" ht="46.5" thickBot="1">
       <c r="A333" s="4" t="s">
         <v>407</v>
       </c>
@@ -21070,7 +21057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="16.2" thickBot="1">
+    <row r="334" spans="1:11" ht="46.5" thickBot="1">
       <c r="A334" s="4" t="s">
         <v>408</v>
       </c>
@@ -21087,7 +21074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="16.2" thickBot="1">
+    <row r="335" spans="1:11" ht="46.5" thickBot="1">
       <c r="A335" s="4" t="s">
         <v>409</v>
       </c>
@@ -21104,7 +21091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="16.2" thickBot="1">
+    <row r="336" spans="1:11" ht="46.5" thickBot="1">
       <c r="A336" s="4" t="s">
         <v>411</v>
       </c>
@@ -21121,7 +21108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="16.2" thickBot="1">
+    <row r="337" spans="1:10" ht="46.5" thickBot="1">
       <c r="A337" s="4" t="s">
         <v>412</v>
       </c>
@@ -21138,7 +21125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="46.2" thickBot="1">
+    <row r="338" spans="1:10" ht="46.5" thickBot="1">
       <c r="A338" s="4" t="s">
         <v>413</v>
       </c>
@@ -21154,7 +21141,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="46.2" thickBot="1">
+    <row r="339" spans="1:10" ht="46.5" thickBot="1">
       <c r="A339" s="4" t="s">
         <v>414</v>
       </c>
@@ -21170,7 +21157,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="46.2" thickBot="1">
+    <row r="340" spans="1:10" ht="46.5" thickBot="1">
       <c r="A340" s="4" t="s">
         <v>415</v>
       </c>
@@ -21186,7 +21173,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="46.2" thickBot="1">
+    <row r="341" spans="1:10" ht="46.5" thickBot="1">
       <c r="A341" s="4" t="s">
         <v>416</v>
       </c>
@@ -21202,7 +21189,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="31.2" thickBot="1">
+    <row r="342" spans="1:10" ht="31.5" thickBot="1">
       <c r="A342" s="4" t="s">
         <v>417</v>
       </c>
@@ -21218,7 +21205,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="31.2" thickBot="1">
+    <row r="343" spans="1:10" ht="31.5" thickBot="1">
       <c r="A343" s="4" t="s">
         <v>419</v>
       </c>
@@ -21234,7 +21221,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="31.2" thickBot="1">
+    <row r="344" spans="1:10" ht="31.5" thickBot="1">
       <c r="A344" s="4" t="s">
         <v>420</v>
       </c>
@@ -21250,7 +21237,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="31.2" thickBot="1">
+    <row r="345" spans="1:10" ht="31.5" thickBot="1">
       <c r="A345" s="4" t="s">
         <v>421</v>
       </c>
@@ -21266,7 +21253,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="31.2" thickBot="1">
+    <row r="346" spans="1:10" ht="31.5" thickBot="1">
       <c r="A346" s="4" t="s">
         <v>422</v>
       </c>
@@ -21282,7 +21269,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="31.2" thickBot="1">
+    <row r="347" spans="1:10" ht="31.5" thickBot="1">
       <c r="A347" s="4" t="s">
         <v>423</v>
       </c>
@@ -21298,7 +21285,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="31.2" thickBot="1">
+    <row r="348" spans="1:10" ht="31.5" thickBot="1">
       <c r="A348" s="4" t="s">
         <v>425</v>
       </c>
@@ -21314,7 +21301,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="31.2" thickBot="1">
+    <row r="349" spans="1:10" ht="31.5" thickBot="1">
       <c r="A349" s="4" t="s">
         <v>426</v>
       </c>
@@ -21330,7 +21317,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="31.2" thickBot="1">
+    <row r="350" spans="1:10" ht="31.5" thickBot="1">
       <c r="A350" s="4" t="s">
         <v>427</v>
       </c>
@@ -21346,7 +21333,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="31.2" thickBot="1">
+    <row r="351" spans="1:10" ht="31.5" thickBot="1">
       <c r="A351" s="4" t="s">
         <v>428</v>
       </c>
@@ -21362,7 +21349,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="31.2" thickBot="1">
+    <row r="352" spans="1:10" ht="31.5" thickBot="1">
       <c r="A352" s="10" t="s">
         <v>429</v>
       </c>
@@ -21381,7 +21368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="31.2" thickBot="1">
+    <row r="353" spans="1:10" ht="31.5" thickBot="1">
       <c r="A353" s="10" t="s">
         <v>430</v>
       </c>
@@ -21400,7 +21387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="31.2" thickBot="1">
+    <row r="354" spans="1:10" ht="31.5" thickBot="1">
       <c r="A354" s="4" t="s">
         <v>431</v>
       </c>
@@ -21416,7 +21403,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="31.2" thickBot="1">
+    <row r="355" spans="1:10" ht="31.5" thickBot="1">
       <c r="A355" s="4" t="s">
         <v>432</v>
       </c>
@@ -21432,7 +21419,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="31.2" thickBot="1">
+    <row r="356" spans="1:10" ht="31.5" thickBot="1">
       <c r="A356" s="4" t="s">
         <v>433</v>
       </c>
@@ -21448,7 +21435,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="31.2" thickBot="1">
+    <row r="357" spans="1:10" ht="31.5" thickBot="1">
       <c r="A357" s="4" t="s">
         <v>434</v>
       </c>
@@ -21464,7 +21451,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="31.2" thickBot="1">
+    <row r="358" spans="1:10" ht="31.5" thickBot="1">
       <c r="A358" s="4" t="s">
         <v>435</v>
       </c>
@@ -21480,7 +21467,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="31.2" thickBot="1">
+    <row r="359" spans="1:10" ht="31.5" thickBot="1">
       <c r="A359" s="4" t="s">
         <v>436</v>
       </c>
@@ -21496,7 +21483,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="31.2" thickBot="1">
+    <row r="360" spans="1:10" ht="31.5" thickBot="1">
       <c r="A360" s="4" t="s">
         <v>437</v>
       </c>
@@ -21512,7 +21499,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="31.2" thickBot="1">
+    <row r="361" spans="1:10" ht="31.5" thickBot="1">
       <c r="A361" s="4" t="s">
         <v>438</v>
       </c>
@@ -21528,7 +21515,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="31.2" thickBot="1">
+    <row r="362" spans="1:10" ht="31.5" thickBot="1">
       <c r="A362" s="4" t="s">
         <v>439</v>
       </c>
@@ -21544,7 +21531,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="31.2" thickBot="1">
+    <row r="363" spans="1:10" ht="31.5" thickBot="1">
       <c r="A363" s="4" t="s">
         <v>441</v>
       </c>
@@ -21560,7 +21547,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="31.2" thickBot="1">
+    <row r="364" spans="1:10" ht="31.5" thickBot="1">
       <c r="A364" s="4" t="s">
         <v>442</v>
       </c>
@@ -21576,7 +21563,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="31.2" thickBot="1">
+    <row r="365" spans="1:10" ht="31.5" thickBot="1">
       <c r="A365" s="4" t="s">
         <v>443</v>
       </c>
@@ -21592,7 +21579,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="31.2" thickBot="1">
+    <row r="366" spans="1:10" ht="31.5" thickBot="1">
       <c r="A366" s="4" t="s">
         <v>444</v>
       </c>
@@ -21608,7 +21595,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="31.2" thickBot="1">
+    <row r="367" spans="1:10" ht="31.5" thickBot="1">
       <c r="A367" s="4" t="s">
         <v>445</v>
       </c>
@@ -21624,7 +21611,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="31.2" thickBot="1">
+    <row r="368" spans="1:10" ht="31.5" thickBot="1">
       <c r="A368" s="4" t="s">
         <v>446</v>
       </c>
@@ -21640,7 +21627,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="31.2" thickBot="1">
+    <row r="369" spans="1:10" ht="31.5" thickBot="1">
       <c r="A369" s="4" t="s">
         <v>447</v>
       </c>
@@ -21659,7 +21646,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="31.2" thickBot="1">
+    <row r="370" spans="1:10" ht="31.5" thickBot="1">
       <c r="A370" s="4" t="s">
         <v>450</v>
       </c>
@@ -21678,7 +21665,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="31.2" thickBot="1">
+    <row r="371" spans="1:10" ht="31.5" thickBot="1">
       <c r="A371" s="4" t="s">
         <v>451</v>
       </c>
@@ -21694,7 +21681,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="31.2" thickBot="1">
+    <row r="372" spans="1:10" ht="31.5" thickBot="1">
       <c r="A372" s="4" t="s">
         <v>453</v>
       </c>
@@ -21710,7 +21697,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="31.2" thickBot="1">
+    <row r="373" spans="1:10" ht="31.5" thickBot="1">
       <c r="A373" s="4" t="s">
         <v>454</v>
       </c>
@@ -21729,7 +21716,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="31.2" thickBot="1">
+    <row r="374" spans="1:10" ht="31.5" thickBot="1">
       <c r="A374" s="4" t="s">
         <v>455</v>
       </c>
@@ -21745,7 +21732,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="31.2" thickBot="1">
+    <row r="375" spans="1:10" ht="31.5" thickBot="1">
       <c r="A375" s="4" t="s">
         <v>457</v>
       </c>
@@ -21761,7 +21748,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="31.2" thickBot="1">
+    <row r="376" spans="1:10" ht="31.5" thickBot="1">
       <c r="A376" s="4" t="s">
         <v>458</v>
       </c>
@@ -21777,7 +21764,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="31.2" thickBot="1">
+    <row r="377" spans="1:10" ht="31.5" thickBot="1">
       <c r="A377" s="4" t="s">
         <v>459</v>
       </c>
@@ -21793,7 +21780,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="16.2" thickBot="1">
+    <row r="378" spans="1:10" ht="16.5" thickBot="1">
       <c r="A378" s="12" t="s">
         <v>460</v>
       </c>
@@ -21812,7 +21799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="16.2" thickBot="1">
+    <row r="379" spans="1:10" ht="16.5" thickBot="1">
       <c r="A379" s="4" t="s">
         <v>462</v>
       </c>
@@ -21831,7 +21818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="16.2" thickBot="1">
+    <row r="380" spans="1:10" ht="16.5" thickBot="1">
       <c r="A380" s="4" t="s">
         <v>463</v>
       </c>
@@ -21850,7 +21837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="16.2" thickBot="1">
+    <row r="381" spans="1:10" ht="16.5" thickBot="1">
       <c r="A381" s="4" t="s">
         <v>464</v>
       </c>
@@ -21866,7 +21853,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="16.2" thickBot="1">
+    <row r="382" spans="1:10" ht="16.5" thickBot="1">
       <c r="A382" s="4" t="s">
         <v>465</v>
       </c>
@@ -21882,7 +21869,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="16.2" thickBot="1">
+    <row r="383" spans="1:10" ht="16.5" thickBot="1">
       <c r="A383" s="4" t="s">
         <v>466</v>
       </c>
@@ -21898,7 +21885,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="16.2" thickBot="1">
+    <row r="384" spans="1:10" ht="16.5" thickBot="1">
       <c r="A384" s="4" t="s">
         <v>467</v>
       </c>
@@ -21914,7 +21901,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="16.2" thickBot="1">
+    <row r="385" spans="1:10" ht="16.5" thickBot="1">
       <c r="A385" s="4" t="s">
         <v>468</v>
       </c>
@@ -21930,7 +21917,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="16.2" thickBot="1">
+    <row r="386" spans="1:10" ht="16.5" thickBot="1">
       <c r="A386" s="4" t="s">
         <v>469</v>
       </c>
@@ -21946,7 +21933,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="16.2" thickBot="1">
+    <row r="387" spans="1:10" ht="16.5" thickBot="1">
       <c r="A387" s="4" t="s">
         <v>470</v>
       </c>
@@ -21962,7 +21949,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="16.2" thickBot="1">
+    <row r="388" spans="1:10" ht="16.5" thickBot="1">
       <c r="A388" s="4" t="s">
         <v>471</v>
       </c>
@@ -21978,7 +21965,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="16.2" thickBot="1">
+    <row r="389" spans="1:10" ht="16.5" thickBot="1">
       <c r="A389" s="4" t="s">
         <v>472</v>
       </c>
@@ -21994,7 +21981,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="16.2" thickBot="1">
+    <row r="390" spans="1:10" ht="16.5" thickBot="1">
       <c r="A390" s="4" t="s">
         <v>473</v>
       </c>
@@ -22010,7 +21997,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="16.2" thickBot="1">
+    <row r="391" spans="1:10" ht="16.5" thickBot="1">
       <c r="A391" s="4" t="s">
         <v>474</v>
       </c>
@@ -22029,7 +22016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="16.2" thickBot="1">
+    <row r="392" spans="1:10" ht="16.5" thickBot="1">
       <c r="A392" s="4" t="s">
         <v>475</v>
       </c>
@@ -22048,7 +22035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="16.2" thickBot="1">
+    <row r="393" spans="1:10" ht="16.5" thickBot="1">
       <c r="A393" s="4" t="s">
         <v>476</v>
       </c>
@@ -22067,7 +22054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="16.2" thickBot="1">
+    <row r="394" spans="1:10" ht="16.5" thickBot="1">
       <c r="A394" s="4" t="s">
         <v>477</v>
       </c>
@@ -22083,7 +22070,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="16.2" thickBot="1">
+    <row r="395" spans="1:10" ht="16.5" thickBot="1">
       <c r="A395" s="4" t="s">
         <v>479</v>
       </c>
@@ -22099,7 +22086,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="16.2" thickBot="1">
+    <row r="396" spans="1:10" ht="16.5" thickBot="1">
       <c r="A396" s="4" t="s">
         <v>480</v>
       </c>
@@ -22115,7 +22102,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="16.2" thickBot="1">
+    <row r="397" spans="1:10" ht="16.5" thickBot="1">
       <c r="A397" s="13" t="s">
         <v>481</v>
       </c>
@@ -22137,7 +22124,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="16.2" thickBot="1">
+    <row r="398" spans="1:10" ht="16.5" thickBot="1">
       <c r="A398" s="4" t="s">
         <v>483</v>
       </c>
@@ -22153,7 +22140,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="16.2" thickBot="1">
+    <row r="399" spans="1:10" ht="16.5" thickBot="1">
       <c r="A399" s="4" t="s">
         <v>484</v>
       </c>
@@ -22169,7 +22156,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="16.2" thickBot="1">
+    <row r="400" spans="1:10" ht="16.5" thickBot="1">
       <c r="A400" s="4" t="s">
         <v>485</v>
       </c>
@@ -22185,7 +22172,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16.2" thickBot="1">
+    <row r="401" spans="1:6" ht="16.5" thickBot="1">
       <c r="A401" s="4" t="s">
         <v>486</v>
       </c>
@@ -22201,7 +22188,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="16.2" thickBot="1">
+    <row r="402" spans="1:6" ht="16.5" thickBot="1">
       <c r="A402" s="4" t="s">
         <v>487</v>
       </c>
@@ -22217,7 +22204,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15" thickBot="1">
+    <row r="403" spans="1:6" ht="15.75" thickBot="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -22225,7 +22212,7 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:6" ht="15" thickBot="1">
+    <row r="404" spans="1:6" ht="15.75" thickBot="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -22242,22 +22229,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EE910-8E6F-404B-BA4D-060668BC2CAF}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="33"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="26"/>
     <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.8" thickBot="1">
+    <row r="1" spans="1:12" ht="48" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22267,13 +22254,13 @@
       <c r="C1" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="25" t="s">
         <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -22292,348 +22279,283 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="38">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="39">
         <v>1</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="38">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="39">
         <v>1</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="38">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="39">
         <v>2</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="50" t="s">
+      <c r="D5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="39">
         <v>2</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="38">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="39">
         <v>2</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="39">
         <v>2</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="39">
         <v>2</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="39">
         <v>2</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="38">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="D10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="39">
         <v>2</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="38">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="50" t="s">
+      <c r="D11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="39">
         <v>2</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="38">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="39">
         <v>2</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38">
-        <v>12</v>
-      </c>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="50" t="s">
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="39">
         <v>2</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="38">
-        <v>13</v>
-      </c>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="50" t="s">
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="39">
         <v>2</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="s">
         <v>639</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="38">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -22644,12 +22566,12 @@
       <c r="E16" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="38">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -22664,7 +22586,7 @@
       <c r="E17" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="25">
         <v>3</v>
       </c>
       <c r="L17" t="s">
@@ -22672,147 +22594,122 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="38">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="29" t="s">
+      <c r="D18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="25">
         <v>4</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
       <c r="L18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="38">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="D19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="25">
         <v>4</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
       <c r="L19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="13.8" customHeight="1">
-      <c r="A20" s="38">
+    <row r="20" spans="1:13" ht="13.9" customHeight="1">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="25">
         <v>4</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
       <c r="L20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="38">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="25">
         <v>4</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
       <c r="L21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="38">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="25">
         <v>4</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
       <c r="L22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="38">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -22821,13 +22718,13 @@
       <c r="C23" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="25">
         <v>4</v>
       </c>
       <c r="L23" t="s">
@@ -22835,7 +22732,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="38">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -22844,13 +22741,13 @@
       <c r="C24" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="25">
         <v>4</v>
       </c>
       <c r="L24" t="s">
@@ -22858,63 +22755,53 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="38">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="25">
         <v>4</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
       <c r="L25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="38">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="25">
         <v>4</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
       <c r="L26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6">
-      <c r="A27" s="38">
+    <row r="27" spans="1:13" ht="15.75">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -22923,76 +22810,71 @@
       <c r="C27" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="25">
         <v>4</v>
       </c>
       <c r="L27" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="36"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="21.6" customHeight="1">
-      <c r="A28" s="38">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="D28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="25">
         <v>4</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
       <c r="L28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="45.6">
-      <c r="A29" s="38">
+    <row r="29" spans="1:13" ht="45.75">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="36" t="s">
         <v>547</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="D29" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="54" t="s">
+      <c r="D29" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="25">
         <v>11</v>
       </c>
       <c r="L29" t="s">
         <v>482</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="21" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="38">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -23002,374 +22884,314 @@
         <v>550</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="38">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="25">
         <v>5</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
       <c r="L31" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="38">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="25">
         <v>5</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
       <c r="L32" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="38">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="25">
         <v>5</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
       <c r="L33" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="38">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="27" t="s">
+      <c r="D34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="25">
         <v>5</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
       <c r="L34" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="38">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="27" t="s">
+      <c r="D35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="25">
         <v>5</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
       <c r="L35" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="38">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="27" t="s">
+      <c r="D36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="25">
         <v>5</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
       <c r="L36" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="38">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="25">
         <v>5</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
       <c r="L37" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="38">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="25">
         <v>5</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
       <c r="L38" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="38">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="27" t="s">
+      <c r="D39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="25">
         <v>5</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
       <c r="L39" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="38">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="27" t="s">
+      <c r="D40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="25">
         <v>5</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
       <c r="L40" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="38">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="25">
         <v>5</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
       <c r="L41" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1">
-      <c r="A42" s="38">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="25">
         <v>5</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
       <c r="L42" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A43" s="38">
+    <row r="43" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="25">
         <v>5</v>
       </c>
       <c r="L43" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A44" s="38">
+    <row r="44" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A44" s="31">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -23378,13 +23200,13 @@
       <c r="C44" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="27" t="s">
+      <c r="D44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="25">
         <v>5</v>
       </c>
       <c r="L44" t="s">
@@ -23392,35 +23214,30 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="38">
+      <c r="A45" s="31">
         <v>43</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="25">
         <v>5</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
       <c r="L45" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="38">
+      <c r="A46" s="31">
         <v>44</v>
       </c>
       <c r="B46" s="18" t="s">
@@ -23430,10 +23247,10 @@
         <v>548</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="25">
         <v>5</v>
       </c>
       <c r="L46" t="s">
@@ -23441,7 +23258,7 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="38">
+      <c r="A47" s="31">
         <v>45</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -23451,30 +23268,30 @@
         <v>550</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F47" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="38">
+      <c r="A48" s="31">
         <v>46</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="39">
         <v>6</v>
       </c>
       <c r="L48" t="s">
@@ -23482,22 +23299,22 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="38">
+      <c r="A49" s="31">
         <v>47</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="39">
         <v>6</v>
       </c>
       <c r="L49" t="s">
@@ -23505,22 +23322,22 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="38">
+      <c r="A50" s="31">
         <v>48</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="39">
         <v>6</v>
       </c>
       <c r="L50" t="s">
@@ -23528,22 +23345,22 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="38">
+      <c r="A51" s="31">
         <v>49</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="39">
         <v>6</v>
       </c>
       <c r="L51" t="s">
@@ -23551,22 +23368,22 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="38">
+      <c r="A52" s="31">
         <v>50</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F52" s="51">
+      <c r="F52" s="39">
         <v>6</v>
       </c>
       <c r="L52" t="s">
@@ -23574,22 +23391,22 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="38">
+      <c r="A53" s="31">
         <v>51</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F53" s="51">
+      <c r="F53" s="39">
         <v>6</v>
       </c>
       <c r="L53" t="s">
@@ -23597,22 +23414,22 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="38">
+      <c r="A54" s="31">
         <v>52</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F54" s="51">
+      <c r="F54" s="39">
         <v>6</v>
       </c>
       <c r="L54" t="s">
@@ -23620,53 +23437,48 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="38">
+      <c r="A55" s="31">
         <v>52</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="D55" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="27" t="s">
+      <c r="D55" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="39">
         <v>6</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
       <c r="L55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="38">
+      <c r="A56" s="31">
         <v>53</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47" t="s">
+      <c r="D56" s="36"/>
+      <c r="E56" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="37">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="38">
+      <c r="A57" s="31">
         <v>54</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -23679,12 +23491,12 @@
       <c r="E57" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="F57" s="44">
+      <c r="F57" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="38">
+      <c r="A58" s="31">
         <v>55</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -23699,7 +23511,7 @@
       <c r="E58" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="25">
         <v>7</v>
       </c>
       <c r="L58" t="s">
@@ -23707,7 +23519,7 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="38">
+      <c r="A59" s="31">
         <v>56</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -23722,7 +23534,7 @@
       <c r="E59" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="25">
         <v>7</v>
       </c>
       <c r="L59" t="s">
@@ -23730,7 +23542,7 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="38">
+      <c r="A60" s="31">
         <v>57</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -23745,7 +23557,7 @@
       <c r="E60" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="25">
         <v>7</v>
       </c>
       <c r="L60" t="s">
@@ -23753,7 +23565,7 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="38">
+      <c r="A61" s="31">
         <v>58</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -23768,7 +23580,7 @@
       <c r="E61" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="25">
         <v>7</v>
       </c>
       <c r="L61" t="s">
@@ -23776,7 +23588,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="38">
+      <c r="A62" s="31">
         <v>59</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -23791,7 +23603,7 @@
       <c r="E62" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="25">
         <v>7</v>
       </c>
       <c r="L62" t="s">
@@ -23799,7 +23611,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="38">
+      <c r="A63" s="31">
         <v>60</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -23814,7 +23626,7 @@
       <c r="E63" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="25">
         <v>7</v>
       </c>
       <c r="L63" t="s">
@@ -23822,7 +23634,7 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="38">
+      <c r="A64" s="31">
         <v>61</v>
       </c>
       <c r="B64" s="18" t="s">
@@ -23837,7 +23649,7 @@
       <c r="E64" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="25">
         <v>7</v>
       </c>
       <c r="L64" t="s">
@@ -23845,22 +23657,22 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="38">
+      <c r="A65" s="31">
         <v>62</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="18" t="s">
         <v>544</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F65" s="31">
+      <c r="F65" s="25">
         <v>7</v>
       </c>
       <c r="L65" t="s">
@@ -23868,53 +23680,48 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="38">
+      <c r="A66" s="31">
         <v>62</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="D66" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="27" t="s">
+      <c r="D66" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="25">
         <v>7</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
       <c r="L66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="38">
+      <c r="A67" s="31">
         <v>63</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="36" t="s">
         <v>578</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47" t="s">
+      <c r="D67" s="36"/>
+      <c r="E67" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="F67" s="48">
+      <c r="F67" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="38">
+      <c r="A68" s="31">
         <v>64</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -23927,12 +23734,12 @@
       <c r="E68" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="F68" s="44">
+      <c r="F68" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="38">
+      <c r="A69" s="31">
         <v>65</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -23947,7 +23754,7 @@
       <c r="E69" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F69" s="25">
         <v>8</v>
       </c>
       <c r="L69" t="s">
@@ -23955,7 +23762,7 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="38">
+      <c r="A70" s="31">
         <v>66</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -23970,7 +23777,7 @@
       <c r="E70" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="25">
         <v>8</v>
       </c>
       <c r="L70" t="s">
@@ -23978,7 +23785,7 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="38">
+      <c r="A71" s="31">
         <v>67</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -23993,7 +23800,7 @@
       <c r="E71" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="25">
         <v>8</v>
       </c>
       <c r="L71" t="s">
@@ -24001,7 +23808,7 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="38">
+      <c r="A72" s="31">
         <v>68</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -24016,7 +23823,7 @@
       <c r="E72" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="25">
         <v>8</v>
       </c>
       <c r="L72" t="s">
@@ -24024,7 +23831,7 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="38">
+      <c r="A73" s="31">
         <v>69</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -24039,7 +23846,7 @@
       <c r="E73" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="25">
         <v>8</v>
       </c>
       <c r="L73" t="s">
@@ -24047,7 +23854,7 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="38">
+      <c r="A74" s="31">
         <v>70</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -24062,15 +23869,15 @@
       <c r="E74" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="25">
         <v>8</v>
       </c>
       <c r="L74" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1">
-      <c r="A75" s="38">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A75" s="31">
         <v>71</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -24085,43 +23892,38 @@
       <c r="E75" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="25">
         <v>8</v>
       </c>
       <c r="L75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A76" s="38">
+    <row r="76" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A76" s="31">
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="18" t="s">
         <v>544</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="25">
         <v>8</v>
       </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
       <c r="L76" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A77" s="38">
+    <row r="77" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A77" s="31">
         <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -24136,7 +23938,7 @@
       <c r="E77" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="25">
         <v>8</v>
       </c>
       <c r="L77" t="s">
@@ -24144,7 +23946,7 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="38">
+      <c r="A78" s="31">
         <v>74</v>
       </c>
       <c r="B78" s="19" t="s">
@@ -24157,127 +23959,102 @@
       <c r="E78" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="F78" s="44">
+      <c r="F78" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="38">
+      <c r="A79" s="31">
         <v>75</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27" t="s">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F79" s="31">
+      <c r="F79" s="25">
         <v>9</v>
       </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="38">
+      <c r="A80" s="31">
         <v>76</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27" t="s">
+      <c r="D80" s="18"/>
+      <c r="E80" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="25">
         <v>9</v>
       </c>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="38">
+      <c r="A81" s="31">
         <v>77</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27" t="s">
+      <c r="D81" s="18"/>
+      <c r="E81" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F81" s="31">
+      <c r="F81" s="25">
         <v>9</v>
       </c>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="38">
+      <c r="A82" s="31">
         <v>78</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27" t="s">
+      <c r="D82" s="18"/>
+      <c r="E82" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="25">
         <v>9</v>
       </c>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="38">
+      <c r="A83" s="31">
         <v>79</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27" t="s">
+      <c r="D83" s="18"/>
+      <c r="E83" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F83" s="31">
+      <c r="F83" s="25">
         <v>9</v>
       </c>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="38">
+      <c r="A84" s="31">
         <v>80</v>
       </c>
       <c r="B84" t="s">
@@ -24286,21 +24063,16 @@
       <c r="C84" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27" t="s">
+      <c r="D84" s="18"/>
+      <c r="E84" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F84" s="31">
+      <c r="F84" s="25">
         <v>9</v>
       </c>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1">
-      <c r="A85" s="38">
+      <c r="A85" s="31">
         <v>80</v>
       </c>
       <c r="B85" t="s">
@@ -24310,15 +24082,15 @@
         <v>544</v>
       </c>
       <c r="D85" s="18"/>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F85" s="30">
+      <c r="F85" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="38">
+      <c r="A86" s="31">
         <v>81</v>
       </c>
       <c r="B86" s="18" t="s">
@@ -24328,15 +24100,15 @@
         <v>591</v>
       </c>
       <c r="D86" s="18"/>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="38">
+      <c r="A87" s="31">
         <v>82</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -24346,15 +24118,15 @@
         <v>550</v>
       </c>
       <c r="D87" s="19"/>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="F87" s="44">
+      <c r="F87" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="38">
+      <c r="A88" s="31">
         <v>83</v>
       </c>
       <c r="B88" s="18" t="s">
@@ -24365,12 +24137,12 @@
       <c r="E88" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="38">
+      <c r="A89" s="31">
         <v>84</v>
       </c>
       <c r="B89" s="18" t="s">
@@ -24381,12 +24153,12 @@
       <c r="E89" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="F89" s="30">
+      <c r="F89" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="38">
+      <c r="A90" s="31">
         <v>85</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -24397,12 +24169,12 @@
       <c r="E90" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="F90" s="30">
+      <c r="F90" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="38">
+      <c r="A91" s="31">
         <v>86</v>
       </c>
       <c r="B91" s="18" t="s">
@@ -24413,12 +24185,12 @@
       <c r="E91" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="F91" s="30">
+      <c r="F91" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="38">
+      <c r="A92" s="31">
         <v>87</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -24433,7 +24205,7 @@
       <c r="E92" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F92" s="30">
+      <c r="F92" s="25">
         <v>11</v>
       </c>
       <c r="L92" t="s">
@@ -24441,7 +24213,7 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="38">
+      <c r="A93" s="31">
         <v>88</v>
       </c>
       <c r="B93" s="18" t="s">
@@ -24456,15 +24228,15 @@
       <c r="E93" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F93" s="30">
+      <c r="F93" s="25">
         <v>11</v>
       </c>
       <c r="L93" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15" thickBot="1">
-      <c r="A94" s="38">
+    <row r="94" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A94" s="31">
         <v>89</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -24479,15 +24251,15 @@
       <c r="E94" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F94" s="30">
+      <c r="F94" s="25">
         <v>11</v>
       </c>
       <c r="L94" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A95" s="38">
+    <row r="95" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="A95" s="31">
         <v>72</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -24498,13 +24270,13 @@
         <v>13</v>
       </c>
       <c r="E95" s="18"/>
-      <c r="F95" s="30"/>
+      <c r="F95" s="25"/>
       <c r="L95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="38">
+      <c r="A96" s="31">
         <v>90</v>
       </c>
       <c r="B96" s="18" t="s">
@@ -24519,7 +24291,7 @@
       <c r="E96" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F96" s="25">
         <v>11</v>
       </c>
       <c r="L96" t="s">
@@ -24527,7 +24299,7 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="38">
+      <c r="A97" s="31">
         <v>91</v>
       </c>
       <c r="B97" s="18" t="s">
@@ -24542,15 +24314,15 @@
       <c r="E97" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F97" s="30">
+      <c r="F97" s="25">
         <v>11</v>
       </c>
       <c r="L97" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1">
-      <c r="A98" s="38"/>
+    <row r="98" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A98" s="31"/>
       <c r="B98" s="18" t="s">
         <v>468</v>
       </c>
@@ -24561,15 +24333,15 @@
       <c r="E98" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98" s="25">
         <v>11</v>
       </c>
       <c r="L98" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A99" s="38">
+    <row r="99" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A99" s="31">
         <v>92</v>
       </c>
       <c r="B99" s="12" t="s">
@@ -24584,15 +24356,15 @@
       <c r="E99" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F99" s="30">
+      <c r="F99" s="25">
         <v>11</v>
       </c>
       <c r="L99" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A100" s="38">
+    <row r="100" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A100" s="31">
         <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -24607,15 +24379,15 @@
       <c r="E100" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F100" s="30">
+      <c r="F100" s="25">
         <v>11</v>
       </c>
       <c r="L100" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A101" s="38">
+    <row r="101" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A101" s="31">
         <v>92</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -24630,18 +24402,18 @@
       <c r="E101" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F101" s="30">
+      <c r="F101" s="25">
         <v>11</v>
       </c>
       <c r="L101" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A102" s="38">
+    <row r="102" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A102" s="31">
         <v>92</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="30" t="s">
         <v>466</v>
       </c>
       <c r="C102" s="18"/>
@@ -24651,15 +24423,15 @@
       <c r="E102" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F102" s="30">
+      <c r="F102" s="25">
         <v>11</v>
       </c>
       <c r="L102" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1">
-      <c r="A103" s="38">
+    <row r="103" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A103" s="31">
         <v>92</v>
       </c>
       <c r="B103" s="18" t="s">
@@ -24672,15 +24444,15 @@
       <c r="E103" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="25">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A104" s="38">
+    <row r="104" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A104" s="31">
         <v>93</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="23" t="s">
         <v>469</v>
       </c>
       <c r="C104" t="s">
@@ -24689,29 +24461,29 @@
       <c r="D104" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="24" t="s">
+      <c r="E104" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="F104" s="34">
+      <c r="F104" s="27">
         <v>11</v>
       </c>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
       <c r="L104" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A105" s="39">
+    <row r="105" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A105" s="32">
         <v>583</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="15" t="s">
         <v>615</v>
       </c>
       <c r="D105" s="18" t="s">
@@ -24720,31 +24492,27 @@
       <c r="E105" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F105" s="45" t="s">
+      <c r="F105" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26" t="s">
+      <c r="K105" t="s">
         <v>15</v>
       </c>
       <c r="L105" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A106" s="39">
+      <c r="M105" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A106" s="32">
         <v>584</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="15" t="s">
         <v>616</v>
       </c>
       <c r="D106" s="18" t="s">
@@ -24753,29 +24521,24 @@
       <c r="E106" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F106" s="45" t="s">
+      <c r="F106" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
       <c r="L106" t="s">
         <v>15</v>
       </c>
-      <c r="M106" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A107" s="39">
+      <c r="M106" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A107" s="32">
         <v>585</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="15" t="s">
         <v>617</v>
       </c>
       <c r="D107" s="18" t="s">
@@ -24784,27 +24547,22 @@
       <c r="E107" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F107" s="45"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
+      <c r="F107" s="35"/>
       <c r="L107" t="s">
         <v>15</v>
       </c>
-      <c r="M107" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A108" s="39">
+      <c r="M107" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A108" s="32">
         <v>586</v>
       </c>
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="15" t="s">
         <v>618</v>
       </c>
       <c r="D108" s="18" t="s">
@@ -24813,27 +24571,22 @@
       <c r="E108" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F108" s="45"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
+      <c r="F108" s="35"/>
       <c r="L108" t="s">
         <v>15</v>
       </c>
-      <c r="M108" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A109" s="39">
+      <c r="M108" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A109" s="32">
         <v>588</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="15" t="s">
         <v>619</v>
       </c>
       <c r="D109" s="18" t="s">
@@ -24842,27 +24595,22 @@
       <c r="E109" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F109" s="45"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
+      <c r="F109" s="35"/>
       <c r="L109" t="s">
         <v>15</v>
       </c>
-      <c r="M109" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A110" s="39">
+      <c r="M109" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A110" s="32">
         <v>589</v>
       </c>
-      <c r="B110" s="28" t="s">
+      <c r="B110" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="15" t="s">
         <v>620</v>
       </c>
       <c r="D110" s="18" t="s">
@@ -24871,27 +24619,22 @@
       <c r="E110" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F110" s="45"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
+      <c r="F110" s="35"/>
       <c r="L110" t="s">
         <v>15</v>
       </c>
-      <c r="M110" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A111" s="39">
+      <c r="M110" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A111" s="32">
         <v>590</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="15" t="s">
         <v>621</v>
       </c>
       <c r="D111" s="18" t="s">
@@ -24900,27 +24643,22 @@
       <c r="E111" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F111" s="45"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
+      <c r="F111" s="35"/>
       <c r="L111" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A112" s="39">
+      <c r="M111" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A112" s="32">
         <v>591</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="15" t="s">
         <v>622</v>
       </c>
       <c r="D112" s="18" t="s">
@@ -24929,21 +24667,16 @@
       <c r="E112" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F112" s="45"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
+      <c r="F112" s="35"/>
       <c r="L112" t="s">
         <v>15</v>
       </c>
-      <c r="M112" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A113" s="39">
+      <c r="M112" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A113" s="32">
         <v>592</v>
       </c>
       <c r="B113" s="15" t="s">
@@ -24958,7 +24691,7 @@
       <c r="E113" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F113" s="46">
+      <c r="F113" s="35">
         <v>11</v>
       </c>
       <c r="L113" t="s">
@@ -24968,8 +24701,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A114" s="39">
+    <row r="114" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A114" s="32">
         <v>593</v>
       </c>
       <c r="B114" s="15" t="s">
@@ -24984,7 +24717,7 @@
       <c r="E114" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F114" s="46">
+      <c r="F114" s="35">
         <v>11</v>
       </c>
       <c r="L114" t="s">
@@ -24994,8 +24727,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A115" s="39">
+    <row r="115" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A115" s="32">
         <v>610</v>
       </c>
       <c r="B115" s="15" t="s">
@@ -25010,7 +24743,7 @@
       <c r="E115" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F115" s="46">
+      <c r="F115" s="35">
         <v>11</v>
       </c>
       <c r="L115" t="s">
@@ -25020,8 +24753,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A116" s="39">
+    <row r="116" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A116" s="32">
         <v>614</v>
       </c>
       <c r="B116" s="15" t="s">
@@ -25036,7 +24769,7 @@
       <c r="E116" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F116" s="46">
+      <c r="F116" s="35">
         <v>11</v>
       </c>
       <c r="K116" t="s">
@@ -25049,8 +24782,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="19.2" customHeight="1">
-      <c r="A117" s="39">
+    <row r="117" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="A117" s="32">
         <v>615</v>
       </c>
       <c r="B117" s="15" t="s">
@@ -25065,7 +24798,7 @@
       <c r="E117" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F117" s="46">
+      <c r="F117" s="35">
         <v>11</v>
       </c>
       <c r="K117" t="s">
@@ -25078,8 +24811,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A118" s="39">
+    <row r="118" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A118" s="32">
         <v>616</v>
       </c>
       <c r="B118" s="15" t="s">
@@ -25094,7 +24827,7 @@
       <c r="E118" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="F118" s="46">
+      <c r="F118" s="35">
         <v>11</v>
       </c>
       <c r="K118" t="s">
@@ -25107,592 +24840,664 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A119" s="38">
+    <row r="119" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A119" s="31">
         <v>94</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24" t="s">
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="F119" s="34">
+      <c r="F119" s="27">
         <v>11</v>
       </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-    </row>
-    <row r="120" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A120" s="38">
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+    </row>
+    <row r="120" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A120" s="31">
         <v>95</v>
       </c>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="24" t="s">
         <v>599</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="25" t="s">
+      <c r="E120" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="F120" s="35">
-        <v>12</v>
-      </c>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
+      <c r="F120" s="28">
+        <v>12</v>
+      </c>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
       <c r="L120" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A121" s="38">
+    <row r="121" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A121" s="31">
         <v>96</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="24" t="s">
         <v>601</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="25" t="s">
+      <c r="E121" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="F121" s="35">
-        <v>12</v>
-      </c>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
+      <c r="F121" s="28">
+        <v>12</v>
+      </c>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
       <c r="L121" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A122" s="38">
+    <row r="122" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A122" s="31">
         <v>97</v>
       </c>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="24" t="s">
         <v>602</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="25" t="s">
+      <c r="E122" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="F122" s="35">
-        <v>12</v>
-      </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="23"/>
+      <c r="F122" s="28">
+        <v>12</v>
+      </c>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
       <c r="L122" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" thickBot="1">
-      <c r="A123" s="39">
+    <row r="123" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A123" s="32">
         <v>598</v>
       </c>
-      <c r="B123" s="28" t="s">
+      <c r="B123" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="15" t="s">
         <v>626</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="25" t="s">
+      <c r="E123" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="F123" s="35">
-        <v>12</v>
-      </c>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="26"/>
+      <c r="F123" s="28">
+        <v>12</v>
+      </c>
       <c r="L123" t="s">
         <v>15</v>
       </c>
-      <c r="M123" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="15" thickBot="1">
-      <c r="A124" s="39">
+      <c r="M123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A124" s="32">
         <v>599</v>
       </c>
-      <c r="B124" s="28" t="s">
+      <c r="B124" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="15" t="s">
         <v>627</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="25" t="s">
+      <c r="E124" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="F124" s="35">
-        <v>12</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="26"/>
+      <c r="F124" s="28">
+        <v>12</v>
+      </c>
       <c r="L124" t="s">
         <v>15</v>
       </c>
-      <c r="M124" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="15" thickBot="1">
-      <c r="A125" s="39">
+      <c r="M124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A125" s="32">
         <v>600</v>
       </c>
-      <c r="B125" s="28" t="s">
+      <c r="B125" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="15" t="s">
         <v>628</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="25" t="s">
+      <c r="E125" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="F125" s="35">
-        <v>12</v>
-      </c>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
+      <c r="F125" s="28">
+        <v>12</v>
+      </c>
       <c r="L125" t="s">
         <v>15</v>
       </c>
-      <c r="M125" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="15" thickBot="1">
-      <c r="A126" s="39">
+      <c r="M125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A126" s="32">
         <v>607</v>
       </c>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="15" t="s">
         <v>632</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E126" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="F126" s="35">
-        <v>12</v>
-      </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
+      <c r="F126" s="28">
+        <v>12</v>
+      </c>
       <c r="L126" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A127" s="38">
+      <c r="M126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A127" s="31">
         <v>98</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="23" t="s">
         <v>603</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="24" t="s">
+      <c r="E127" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F127" s="34">
-        <v>13</v>
-      </c>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
+      <c r="F127" s="27">
+        <v>13</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
       <c r="L127" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A128" s="38">
+    <row r="128" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A128" s="31">
         <v>99</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C128" s="23" t="s">
         <v>604</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="24" t="s">
+      <c r="E128" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F128" s="34">
-        <v>13</v>
-      </c>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="23"/>
-      <c r="K128" s="23"/>
+      <c r="F128" s="27">
+        <v>13</v>
+      </c>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
       <c r="L128" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A129" s="38">
+    <row r="129" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A129" s="31">
         <v>100</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24" t="s">
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F129" s="34">
-        <v>13</v>
-      </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="23"/>
-    </row>
-    <row r="130" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A130" s="38">
+      <c r="F129" s="27">
+        <v>13</v>
+      </c>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+    </row>
+    <row r="130" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A130" s="31">
         <v>101</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24" t="s">
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F130" s="34">
-        <v>13</v>
-      </c>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="23"/>
-      <c r="K130" s="23"/>
-    </row>
-    <row r="131" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A131" s="38">
+      <c r="F130" s="27">
+        <v>13</v>
+      </c>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+    </row>
+    <row r="131" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A131" s="31">
         <v>102</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24" t="s">
+      <c r="D131" s="23"/>
+      <c r="E131" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F131" s="34">
-        <v>13</v>
-      </c>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-    </row>
-    <row r="132" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A132" s="38">
+      <c r="F131" s="27">
+        <v>13</v>
+      </c>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+    </row>
+    <row r="132" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A132" s="31">
+        <v>106</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="41" t="s">
+        <v>649</v>
+      </c>
+      <c r="F132" s="42">
+        <v>14</v>
+      </c>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A133" s="31">
+        <v>107</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="F133" s="27">
+        <v>14</v>
+      </c>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A134" s="31">
         <v>103</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B134" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C134" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24" t="s">
+      <c r="D134" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F132" s="34">
+      <c r="F134" s="27">
         <v>14</v>
       </c>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-    </row>
-    <row r="133" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A133" s="38">
-        <v>104</v>
-      </c>
-      <c r="B133" s="24" t="s">
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B135" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C135" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24" t="s">
+      <c r="D135" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F133" s="34">
+      <c r="F135" s="27">
         <v>14</v>
       </c>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="23"/>
-    </row>
-    <row r="134" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A134" s="38">
-        <v>105</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="F134" s="34">
-        <v>14</v>
-      </c>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="23"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-    </row>
-    <row r="135" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A135" s="38">
-        <v>106</v>
-      </c>
-      <c r="B135" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="C135" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="D135" s="41"/>
-      <c r="E135" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="F135" s="42">
-        <v>14</v>
-      </c>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
       <c r="L135" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A136" s="38">
-        <v>107</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="C136" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24" t="s">
+    <row r="136" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B136" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="C136" s="44" t="s">
+        <v>607</v>
+      </c>
+      <c r="D136" s="44"/>
+      <c r="E136" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F136" s="34">
+      <c r="F136" s="27">
         <v>14</v>
       </c>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-    </row>
-    <row r="137" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A137" s="38">
+      <c r="L136" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A137" s="31">
         <v>108</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24" t="s">
+      <c r="D137" s="23"/>
+      <c r="E137" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F137" s="34">
+      <c r="F137" s="27">
         <v>14</v>
       </c>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-    </row>
-    <row r="138" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A138" s="38">
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+    </row>
+    <row r="138" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A138" s="31">
         <v>109</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24" t="s">
+      <c r="D138" s="23"/>
+      <c r="E138" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F138" s="34">
+      <c r="F138" s="27">
         <v>14</v>
       </c>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="23"/>
-      <c r="K138" s="23"/>
-    </row>
-    <row r="139" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A139" s="38">
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="22"/>
+      <c r="J138" s="22"/>
+      <c r="K138" s="22"/>
+    </row>
+    <row r="139" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A139" s="31">
         <v>110</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C139" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24" t="s">
+      <c r="D139" s="23"/>
+      <c r="E139" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F139" s="34">
+      <c r="F139" s="27">
         <v>14</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-    </row>
-    <row r="140" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A140" s="38">
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+    </row>
+    <row r="140" spans="1:12" ht="19.149999999999999" customHeight="1" thickBot="1">
+      <c r="A140" s="31">
         <v>111</v>
       </c>
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24" t="s">
+      <c r="D140" s="23"/>
+      <c r="E140" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F140" s="34">
+      <c r="F140" s="27">
         <v>14</v>
       </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="23"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="23"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
     </row>
     <row r="141" spans="1:12" ht="0.6" customHeight="1">
-      <c r="A141" s="39">
+      <c r="A141" s="32">
         <v>569</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" t="s">
         <v>422</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" t="s">
         <v>614</v>
       </c>
-      <c r="D141" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="26"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="26"/>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
       <c r="L141">
         <f>VLOOKUP(B141,'[1]Unit Test'!A:J,10,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.6" customHeight="1"/>
+    <row r="142" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B142" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="F142" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="C144" s="43" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="F146" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="F147" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="F148" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="F149" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="F150" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="15.6" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:L155" xr:uid="{2F8EE910-8E6F-404B-BA4D-060668BC2CAF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L155">
